--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_25_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_25_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1703309.736823021</v>
+        <v>1679606.264199887</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4622922.901379753</v>
+        <v>4622922.901379749</v>
       </c>
     </row>
     <row r="9">
@@ -1372,16 +1372,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>8.391038700111482</v>
       </c>
       <c r="G11" t="n">
         <v>411.0524962529722</v>
@@ -1390,7 +1390,7 @@
         <v>295.9470187896418</v>
       </c>
       <c r="I11" t="n">
-        <v>46.61846331087241</v>
+        <v>46.61846331087239</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.451084257434</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>135.0694376048751</v>
       </c>
       <c r="H12" t="n">
-        <v>90.27262323888752</v>
+        <v>90.2726232388875</v>
       </c>
       <c r="I12" t="n">
-        <v>11.10047261924875</v>
+        <v>11.10047261924873</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.31154086906852</v>
       </c>
       <c r="H13" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>91.56968311387365</v>
+        <v>91.56968311387364</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T13" t="n">
         <v>219.7995839928288</v>
@@ -1587,13 +1587,13 @@
         <v>286.2150377977404</v>
       </c>
       <c r="V13" t="n">
-        <v>213.3846342847346</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.0524962529722</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I14" t="n">
-        <v>46.61846331087241</v>
+        <v>46.61846331087239</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>28.47852990416683</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>189.1546949213425</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.0694376048751</v>
       </c>
       <c r="H15" t="n">
-        <v>90.27262323888752</v>
+        <v>90.2726232388875</v>
       </c>
       <c r="I15" t="n">
-        <v>11.10047261924875</v>
+        <v>11.10047261924873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0844674480336</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>116.3777045267958</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>143.858185109457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>366.266666836246</v>
+        <v>396.1323697799506</v>
       </c>
       <c r="H17" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>46.61846331087241</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>112.1676968247093</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0056336068635</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>91.56968311387365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>190.7912950162003</v>
@@ -2058,19 +2058,19 @@
         <v>219.7995839928288</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>237.6859421391513</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>142.2807212029508</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>268.4880386507593</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>285.8748579220618</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>112.1676968247093</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.0056336068635</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>135.0694376048751</v>
       </c>
       <c r="H21" t="n">
-        <v>90.27262323888752</v>
+        <v>90.2726232388875</v>
       </c>
       <c r="I21" t="n">
-        <v>11.10047261924875</v>
+        <v>11.10047261924873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.82832639852275</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0844674480336</v>
       </c>
       <c r="H22" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>91.56968311387365</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>190.7912950162003</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7995839928288</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>162.9069107554762</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I23" t="n">
-        <v>46.61846331087239</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>219.5660246835774</v>
       </c>
       <c r="V23" t="n">
-        <v>28.47852990416638</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>135.0694376048751</v>
       </c>
       <c r="H24" t="n">
-        <v>90.2726232388875</v>
+        <v>90.27262323888752</v>
       </c>
       <c r="I24" t="n">
-        <v>11.10047261924873</v>
+        <v>11.10047261924875</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>77.49168402809659</v>
       </c>
       <c r="D25" t="n">
-        <v>31.75320762447155</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0844674480336</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56968311387364</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7995839928288</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>219.4930352951548</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>46.61846331087241</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>204.4904184390135</v>
       </c>
       <c r="U26" t="n">
-        <v>226.8240183786706</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>38.55553414682561</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.3330453201329</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>166.0844674480336</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56968311387365</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T28" t="n">
         <v>219.7995839928288</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>209.2501067561237</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>411.0524962529722</v>
       </c>
       <c r="H29" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>46.61846331087241</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>112.1676968247093</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>204.4904184390135</v>
@@ -2851,16 +2851,16 @@
         <v>251.0056336068635</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>39.1830626148278</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>62.12596399703067</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>143.6202474816131</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0844674480336</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56968311387365</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>190.7912950162003</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,10 +3046,10 @@
         <v>411.0524962529722</v>
       </c>
       <c r="H32" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>46.61846331087247</v>
+        <v>46.61846331087241</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>240.2623292759611</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>278.5082201459462</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>90.27262323888752</v>
       </c>
       <c r="I33" t="n">
-        <v>11.10047261924878</v>
+        <v>11.10047261924875</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>17.79218783486701</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>91.56968311387365</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T34" t="n">
-        <v>168.9304674209959</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.0524962529722</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.65509851299966</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0056336068635</v>
+        <v>136.2657869007408</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>90.27262323888752</v>
       </c>
       <c r="I36" t="n">
-        <v>11.10047261924878</v>
+        <v>11.10047261924875</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>59.59013342149618</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>22.59333926853387</v>
+        <v>166.0844674480336</v>
       </c>
       <c r="H37" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>91.56968311387367</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>190.7912950162003</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7995839928288</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2150377977404</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>313.1499943588747</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>411.0524962529722</v>
       </c>
       <c r="H38" t="n">
-        <v>70.79337377535909</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I38" t="n">
-        <v>46.61846331087247</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>112.1676968247093</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0844674480336</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.11646220283799</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>143.8581851094575</v>
+        <v>14.98298206987421</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>411.0524962529722</v>
       </c>
       <c r="H41" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>46.61846331087247</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.97445854331639</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>228.2460506135992</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0844674480336</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I43" t="n">
-        <v>39.34607951047871</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>91.56968311387367</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>190.7912950162003</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.7995839928288</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>102.8521913531819</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>75.80868311552754</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>302.5601442085502</v>
       </c>
       <c r="G44" t="n">
         <v>411.0524962529722</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>112.1676968247093</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0844674480336</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.0838528851306</v>
       </c>
       <c r="U46" t="n">
-        <v>135.1135524195811</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2348.555746083993</v>
+        <v>1218.817422414002</v>
       </c>
       <c r="C11" t="n">
-        <v>1979.593229143581</v>
+        <v>1218.817422414002</v>
       </c>
       <c r="D11" t="n">
-        <v>1621.327530536831</v>
+        <v>1218.817422414002</v>
       </c>
       <c r="E11" t="n">
-        <v>1235.539277938586</v>
+        <v>833.029169815758</v>
       </c>
       <c r="F11" t="n">
         <v>824.5533731489787</v>
@@ -5038,55 +5038,55 @@
         <v>110.41244886351</v>
       </c>
       <c r="I11" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384087</v>
       </c>
       <c r="J11" t="n">
-        <v>241.2142216836712</v>
+        <v>241.214221683671</v>
       </c>
       <c r="K11" t="n">
-        <v>558.5654298314702</v>
+        <v>558.5654298314701</v>
       </c>
       <c r="L11" t="n">
-        <v>989.1694275101595</v>
+        <v>989.1694275101599</v>
       </c>
       <c r="M11" t="n">
-        <v>1499.968780879665</v>
+        <v>1499.968780879666</v>
       </c>
       <c r="N11" t="n">
-        <v>2023.647210189805</v>
+        <v>2023.647210189806</v>
       </c>
       <c r="O11" t="n">
-        <v>2504.806639967975</v>
+        <v>2504.806639967976</v>
       </c>
       <c r="P11" t="n">
-        <v>2880.964080407848</v>
+        <v>2880.96408040785</v>
       </c>
       <c r="Q11" t="n">
-        <v>3115.269906120539</v>
+        <v>3115.26990612054</v>
       </c>
       <c r="R11" t="n">
-        <v>3166.154599192042</v>
+        <v>3166.154599192043</v>
       </c>
       <c r="S11" t="n">
-        <v>3125.294918123926</v>
+        <v>3052.853895328701</v>
       </c>
       <c r="T11" t="n">
-        <v>3125.294918123926</v>
+        <v>3052.853895328701</v>
       </c>
       <c r="U11" t="n">
-        <v>3125.294918123926</v>
+        <v>3052.853895328701</v>
       </c>
       <c r="V11" t="n">
-        <v>3125.294918123926</v>
+        <v>2721.79100798513</v>
       </c>
       <c r="W11" t="n">
-        <v>3125.294918123926</v>
+        <v>2369.022352715016</v>
       </c>
       <c r="X11" t="n">
-        <v>3125.294918123926</v>
+        <v>1995.556594453936</v>
       </c>
       <c r="Y11" t="n">
-        <v>2735.155586148115</v>
+        <v>1605.417262478124</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H12" t="n">
-        <v>74.5356905891426</v>
+        <v>74.53569058914262</v>
       </c>
       <c r="I12" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384087</v>
       </c>
       <c r="J12" t="n">
-        <v>150.455983199826</v>
+        <v>150.4559831998261</v>
       </c>
       <c r="K12" t="n">
-        <v>478.8381340525947</v>
+        <v>377.5347973355917</v>
       </c>
       <c r="L12" t="n">
-        <v>830.496164079495</v>
+        <v>729.1928273624922</v>
       </c>
       <c r="M12" t="n">
-        <v>1260.221366655439</v>
+        <v>1158.918029938436</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.728761572067</v>
+        <v>1614.425424855065</v>
       </c>
       <c r="O12" t="n">
         <v>2110.209242129161</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>309.1746178767222</v>
+        <v>305.3012353855544</v>
       </c>
       <c r="C13" t="n">
-        <v>309.1746178767222</v>
+        <v>136.3650524576475</v>
       </c>
       <c r="D13" t="n">
-        <v>309.1746178767222</v>
+        <v>136.3650524576475</v>
       </c>
       <c r="E13" t="n">
-        <v>309.1746178767222</v>
+        <v>136.3650524576475</v>
       </c>
       <c r="F13" t="n">
-        <v>309.1746178767222</v>
+        <v>136.3650524576475</v>
       </c>
       <c r="G13" t="n">
-        <v>309.1746178767222</v>
+        <v>63.32309198384087</v>
       </c>
       <c r="H13" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384087</v>
       </c>
       <c r="I13" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384087</v>
       </c>
       <c r="J13" t="n">
-        <v>104.3399918147188</v>
+        <v>104.3399918147189</v>
       </c>
       <c r="K13" t="n">
-        <v>301.5801948441897</v>
+        <v>301.5801948441898</v>
       </c>
       <c r="L13" t="n">
-        <v>609.5061818997315</v>
+        <v>609.5061818997317</v>
       </c>
       <c r="M13" t="n">
-        <v>944.5600839350936</v>
+        <v>944.5600839350939</v>
       </c>
       <c r="N13" t="n">
         <v>1277.081769484202</v>
@@ -5217,7 +5217,7 @@
         <v>1568.203070768706</v>
       </c>
       <c r="P13" t="n">
-        <v>1793.78695454761</v>
+        <v>1793.786954547611</v>
       </c>
       <c r="Q13" t="n">
         <v>1866.534462590763</v>
@@ -5226,25 +5226,25 @@
         <v>1774.03983318281</v>
       </c>
       <c r="S13" t="n">
-        <v>1774.03983318281</v>
+        <v>1581.321353368467</v>
       </c>
       <c r="T13" t="n">
-        <v>1552.020051371872</v>
+        <v>1359.301571557528</v>
       </c>
       <c r="U13" t="n">
-        <v>1262.913952586275</v>
+        <v>1070.195472771932</v>
       </c>
       <c r="V13" t="n">
-        <v>1047.37391795523</v>
+        <v>815.5109845660451</v>
       </c>
       <c r="W13" t="n">
-        <v>757.9567479182697</v>
+        <v>526.0938145290845</v>
       </c>
       <c r="X13" t="n">
-        <v>529.9671970202523</v>
+        <v>526.0938145290845</v>
       </c>
       <c r="Y13" t="n">
-        <v>309.1746178767222</v>
+        <v>305.3012353855544</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1634.414821798524</v>
+        <v>1937.569841294385</v>
       </c>
       <c r="C14" t="n">
-        <v>1265.452304858112</v>
+        <v>1568.607324353973</v>
       </c>
       <c r="D14" t="n">
-        <v>907.1866062513618</v>
+        <v>1210.341625747223</v>
       </c>
       <c r="E14" t="n">
-        <v>521.3983536531175</v>
+        <v>824.5533731489787</v>
       </c>
       <c r="F14" t="n">
-        <v>110.41244886351</v>
+        <v>824.5533731489787</v>
       </c>
       <c r="G14" t="n">
-        <v>110.41244886351</v>
+        <v>409.3488314793098</v>
       </c>
       <c r="H14" t="n">
-        <v>110.41244886351</v>
+        <v>110.4124488635099</v>
       </c>
       <c r="I14" t="n">
         <v>63.32309198384085</v>
       </c>
       <c r="J14" t="n">
-        <v>241.214221683671</v>
+        <v>241.2142216836713</v>
       </c>
       <c r="K14" t="n">
-        <v>558.5654298314701</v>
+        <v>558.5654298314704</v>
       </c>
       <c r="L14" t="n">
-        <v>989.1694275101597</v>
+        <v>989.1694275101604</v>
       </c>
       <c r="M14" t="n">
         <v>1499.968780879666</v>
@@ -5305,25 +5305,25 @@
         <v>3166.154599192042</v>
       </c>
       <c r="S14" t="n">
-        <v>3166.154599192042</v>
+        <v>3052.8538953287</v>
       </c>
       <c r="T14" t="n">
-        <v>3166.154599192042</v>
+        <v>2846.297917107474</v>
       </c>
       <c r="U14" t="n">
-        <v>3166.154599192042</v>
+        <v>2846.297917107474</v>
       </c>
       <c r="V14" t="n">
-        <v>3137.388407369652</v>
+        <v>2515.235029763903</v>
       </c>
       <c r="W14" t="n">
-        <v>2784.619752099537</v>
+        <v>2515.235029763903</v>
       </c>
       <c r="X14" t="n">
-        <v>2411.153993838458</v>
+        <v>2324.169681358507</v>
       </c>
       <c r="Y14" t="n">
-        <v>2021.014661862646</v>
+        <v>2324.169681358507</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H15" t="n">
-        <v>74.53569058914262</v>
+        <v>74.5356905891426</v>
       </c>
       <c r="I15" t="n">
         <v>63.32309198384085</v>
       </c>
       <c r="J15" t="n">
-        <v>251.7593199168291</v>
+        <v>150.4559831998261</v>
       </c>
       <c r="K15" t="n">
-        <v>478.8381340525947</v>
+        <v>377.5347973355917</v>
       </c>
       <c r="L15" t="n">
-        <v>830.496164079495</v>
+        <v>729.1928273624922</v>
       </c>
       <c r="M15" t="n">
-        <v>1260.221366655439</v>
+        <v>1158.918029938436</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.728761572067</v>
+        <v>1614.425424855065</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.209242129161</v>
+        <v>2008.905905412158</v>
       </c>
       <c r="P15" t="n">
         <v>2407.481539546449</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1090.792569628616</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="C16" t="n">
-        <v>921.8563867007086</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="D16" t="n">
-        <v>771.7397472883729</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="E16" t="n">
-        <v>623.8266537059798</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="F16" t="n">
-        <v>476.9367062080694</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="G16" t="n">
-        <v>309.1746178767223</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H16" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I16" t="n">
         <v>63.32309198384085</v>
       </c>
       <c r="J16" t="n">
-        <v>104.3399918147188</v>
+        <v>104.3399918147189</v>
       </c>
       <c r="K16" t="n">
-        <v>301.5801948441897</v>
+        <v>301.5801948441898</v>
       </c>
       <c r="L16" t="n">
-        <v>609.5061818997315</v>
+        <v>609.5061818997317</v>
       </c>
       <c r="M16" t="n">
-        <v>944.5600839350936</v>
+        <v>944.5600839350939</v>
       </c>
       <c r="N16" t="n">
         <v>1277.081769484202</v>
@@ -5454,7 +5454,7 @@
         <v>1568.203070768706</v>
       </c>
       <c r="P16" t="n">
-        <v>1793.78695454761</v>
+        <v>1793.786954547611</v>
       </c>
       <c r="Q16" t="n">
         <v>1866.534462590763</v>
@@ -5463,25 +5463,25 @@
         <v>1866.534462590763</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.534462590763</v>
+        <v>1748.98122569501</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.534462590763</v>
+        <v>1526.961443884072</v>
       </c>
       <c r="U16" t="n">
-        <v>1866.534462590763</v>
+        <v>1237.855345098475</v>
       </c>
       <c r="V16" t="n">
-        <v>1866.534462590763</v>
+        <v>983.1708568925885</v>
       </c>
       <c r="W16" t="n">
-        <v>1721.223164500403</v>
+        <v>693.753686855628</v>
       </c>
       <c r="X16" t="n">
-        <v>1493.233613602385</v>
+        <v>465.7641359576106</v>
       </c>
       <c r="Y16" t="n">
-        <v>1272.441034458855</v>
+        <v>244.9715568140805</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1945.051835945196</v>
+        <v>1648.760276048715</v>
       </c>
       <c r="C17" t="n">
-        <v>1576.089319004784</v>
+        <v>1279.797759108303</v>
       </c>
       <c r="D17" t="n">
-        <v>1576.089319004784</v>
+        <v>921.5320605015525</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.30106640654</v>
+        <v>921.5320605015525</v>
       </c>
       <c r="F17" t="n">
-        <v>779.3151616169321</v>
+        <v>510.5461557119449</v>
       </c>
       <c r="G17" t="n">
-        <v>409.3488314793098</v>
+        <v>110.41244886351</v>
       </c>
       <c r="H17" t="n">
         <v>110.41244886351</v>
       </c>
       <c r="I17" t="n">
-        <v>63.32309198384085</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="J17" t="n">
-        <v>241.2142216836714</v>
+        <v>241.214221683671</v>
       </c>
       <c r="K17" t="n">
-        <v>558.5654298314703</v>
+        <v>558.5654298314698</v>
       </c>
       <c r="L17" t="n">
         <v>989.1694275101599</v>
@@ -5533,7 +5533,7 @@
         <v>2504.806639967975</v>
       </c>
       <c r="P17" t="n">
-        <v>2880.964080407849</v>
+        <v>2880.964080407848</v>
       </c>
       <c r="Q17" t="n">
         <v>3115.269906120539</v>
@@ -5542,25 +5542,25 @@
         <v>3166.154599192042</v>
       </c>
       <c r="S17" t="n">
-        <v>3052.8538953287</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="T17" t="n">
-        <v>3052.8538953287</v>
+        <v>2959.598620970816</v>
       </c>
       <c r="U17" t="n">
-        <v>3052.8538953287</v>
+        <v>2706.057576923479</v>
       </c>
       <c r="V17" t="n">
-        <v>2721.791007985129</v>
+        <v>2374.994689579908</v>
       </c>
       <c r="W17" t="n">
-        <v>2721.791007985129</v>
+        <v>2022.226034309794</v>
       </c>
       <c r="X17" t="n">
-        <v>2721.791007985129</v>
+        <v>1648.760276048715</v>
       </c>
       <c r="Y17" t="n">
-        <v>2331.651676009317</v>
+        <v>1648.760276048715</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H18" t="n">
-        <v>74.53569058914262</v>
+        <v>74.5356905891426</v>
       </c>
       <c r="I18" t="n">
-        <v>63.32309198384085</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="J18" t="n">
-        <v>211.1350865809291</v>
+        <v>150.455983199826</v>
       </c>
       <c r="K18" t="n">
-        <v>438.2139007166946</v>
+        <v>377.5347973355916</v>
       </c>
       <c r="L18" t="n">
-        <v>789.8719307435949</v>
+        <v>830.496164079495</v>
       </c>
       <c r="M18" t="n">
-        <v>1219.597133319539</v>
+        <v>1260.221366655439</v>
       </c>
       <c r="N18" t="n">
-        <v>1675.104528236167</v>
+        <v>1715.728761572067</v>
       </c>
       <c r="O18" t="n">
-        <v>2069.585008793261</v>
+        <v>2110.209242129161</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.857306210549</v>
+        <v>2407.481539546449</v>
       </c>
       <c r="Q18" t="n">
-        <v>2515.656768072139</v>
+        <v>2556.281001408039</v>
       </c>
       <c r="R18" t="n">
         <v>2556.281001408039</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>382.3759143240835</v>
+        <v>508.24277247648</v>
       </c>
       <c r="C19" t="n">
-        <v>213.4397313961766</v>
+        <v>508.24277247648</v>
       </c>
       <c r="D19" t="n">
-        <v>63.32309198384085</v>
+        <v>358.1261330641443</v>
       </c>
       <c r="E19" t="n">
-        <v>63.32309198384085</v>
+        <v>210.2130394817512</v>
       </c>
       <c r="F19" t="n">
-        <v>63.32309198384085</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="G19" t="n">
-        <v>63.32309198384085</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="H19" t="n">
-        <v>63.32309198384085</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="I19" t="n">
-        <v>63.32309198384085</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="J19" t="n">
         <v>104.3399918147188</v>
@@ -5697,28 +5697,28 @@
         <v>1866.534462590763</v>
       </c>
       <c r="R19" t="n">
-        <v>1774.03983318281</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S19" t="n">
-        <v>1581.321353368466</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="T19" t="n">
-        <v>1359.301571557528</v>
+        <v>1451.796200965481</v>
       </c>
       <c r="U19" t="n">
-        <v>1070.195472771932</v>
+        <v>1451.796200965481</v>
       </c>
       <c r="V19" t="n">
-        <v>815.5109845660448</v>
+        <v>1197.111712759594</v>
       </c>
       <c r="W19" t="n">
-        <v>526.0938145290843</v>
+        <v>957.0249025180275</v>
       </c>
       <c r="X19" t="n">
-        <v>526.0938145290843</v>
+        <v>729.0353516200101</v>
       </c>
       <c r="Y19" t="n">
-        <v>382.3759143240835</v>
+        <v>508.24277247648</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1148.85973212125</v>
+        <v>1078.577082230007</v>
       </c>
       <c r="C20" t="n">
-        <v>1148.85973212125</v>
+        <v>807.3770431888356</v>
       </c>
       <c r="D20" t="n">
-        <v>1148.85973212125</v>
+        <v>449.1113445820851</v>
       </c>
       <c r="E20" t="n">
-        <v>763.0714795230058</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="F20" t="n">
-        <v>352.0855747333982</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="G20" t="n">
-        <v>352.0855747333982</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="H20" t="n">
         <v>63.32309198384084</v>
@@ -5752,25 +5752,25 @@
         <v>63.32309198384084</v>
       </c>
       <c r="J20" t="n">
-        <v>241.214221683671</v>
+        <v>241.2142216836713</v>
       </c>
       <c r="K20" t="n">
-        <v>558.5654298314698</v>
+        <v>558.5654298314704</v>
       </c>
       <c r="L20" t="n">
-        <v>989.1694275101599</v>
+        <v>989.1694275101604</v>
       </c>
       <c r="M20" t="n">
         <v>1499.968780879666</v>
       </c>
       <c r="N20" t="n">
-        <v>2023.647210189805</v>
+        <v>2023.647210189806</v>
       </c>
       <c r="O20" t="n">
         <v>2504.806639967975</v>
       </c>
       <c r="P20" t="n">
-        <v>2880.964080407848</v>
+        <v>2880.964080407849</v>
       </c>
       <c r="Q20" t="n">
         <v>3115.269906120539</v>
@@ -5779,25 +5779,25 @@
         <v>3166.154599192042</v>
       </c>
       <c r="S20" t="n">
-        <v>3052.853895328699</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="T20" t="n">
-        <v>2846.297917107473</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="U20" t="n">
-        <v>2592.756873060137</v>
+        <v>2912.613555144705</v>
       </c>
       <c r="V20" t="n">
-        <v>2261.693985716566</v>
+        <v>2581.550667801134</v>
       </c>
       <c r="W20" t="n">
-        <v>1908.925330446452</v>
+        <v>2228.78201253102</v>
       </c>
       <c r="X20" t="n">
-        <v>1535.459572185372</v>
+        <v>1855.31625426994</v>
       </c>
       <c r="Y20" t="n">
-        <v>1535.459572185372</v>
+        <v>1465.176922294128</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H21" t="n">
-        <v>74.5356905891426</v>
+        <v>74.53569058914259</v>
       </c>
       <c r="I21" t="n">
         <v>63.32309198384084</v>
       </c>
       <c r="J21" t="n">
-        <v>150.455983199826</v>
+        <v>150.4559831998261</v>
       </c>
       <c r="K21" t="n">
-        <v>377.5347973355916</v>
+        <v>478.8381340525946</v>
       </c>
       <c r="L21" t="n">
-        <v>729.1928273624919</v>
+        <v>830.496164079495</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.918029938436</v>
+        <v>1260.221366655439</v>
       </c>
       <c r="N21" t="n">
-        <v>1614.425424855064</v>
+        <v>1715.728761572067</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.905905412158</v>
+        <v>2110.209242129161</v>
       </c>
       <c r="P21" t="n">
-        <v>2306.178202829446</v>
+        <v>2407.481539546449</v>
       </c>
       <c r="Q21" t="n">
         <v>2556.281001408039</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.8605275837584</v>
+        <v>844.9410437357341</v>
       </c>
       <c r="C22" t="n">
-        <v>787.9243446558515</v>
+        <v>676.0048608078272</v>
       </c>
       <c r="D22" t="n">
-        <v>637.8077052435158</v>
+        <v>525.8882213954914</v>
       </c>
       <c r="E22" t="n">
-        <v>489.8946116611227</v>
+        <v>377.9751278130983</v>
       </c>
       <c r="F22" t="n">
-        <v>476.9367062080694</v>
+        <v>231.085180315188</v>
       </c>
       <c r="G22" t="n">
-        <v>309.1746178767222</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="H22" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="I22" t="n">
         <v>63.32309198384084</v>
@@ -5913,13 +5913,13 @@
         <v>104.3399918147188</v>
       </c>
       <c r="K22" t="n">
-        <v>301.5801948441897</v>
+        <v>301.5801948441898</v>
       </c>
       <c r="L22" t="n">
-        <v>609.5061818997315</v>
+        <v>609.5061818997317</v>
       </c>
       <c r="M22" t="n">
-        <v>944.5600839350936</v>
+        <v>944.5600839350939</v>
       </c>
       <c r="N22" t="n">
         <v>1277.081769484202</v>
@@ -5928,34 +5928,34 @@
         <v>1568.203070768706</v>
       </c>
       <c r="P22" t="n">
-        <v>1793.78695454761</v>
+        <v>1793.786954547611</v>
       </c>
       <c r="Q22" t="n">
         <v>1866.534462590763</v>
       </c>
       <c r="R22" t="n">
-        <v>1774.03983318281</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S22" t="n">
-        <v>1581.321353368466</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="T22" t="n">
-        <v>1359.301571557528</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="U22" t="n">
-        <v>1359.301571557528</v>
+        <v>1509.263547669878</v>
       </c>
       <c r="V22" t="n">
-        <v>1359.301571557528</v>
+        <v>1254.579059463991</v>
       </c>
       <c r="W22" t="n">
-        <v>1359.301571557528</v>
+        <v>1254.579059463991</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.301571557528</v>
+        <v>1026.589508565974</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.508992413998</v>
+        <v>1026.589508565974</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1634.414821798524</v>
+        <v>1500.47359493641</v>
       </c>
       <c r="C23" t="n">
-        <v>1265.452304858112</v>
+        <v>1131.511077995999</v>
       </c>
       <c r="D23" t="n">
-        <v>907.1866062513618</v>
+        <v>773.2453793892482</v>
       </c>
       <c r="E23" t="n">
-        <v>521.3983536531175</v>
+        <v>773.2453793892482</v>
       </c>
       <c r="F23" t="n">
-        <v>110.4124488635099</v>
+        <v>362.2594745996407</v>
       </c>
       <c r="G23" t="n">
-        <v>110.4124488635099</v>
+        <v>362.2594745996407</v>
       </c>
       <c r="H23" t="n">
-        <v>110.4124488635099</v>
+        <v>63.32309198384084</v>
       </c>
       <c r="I23" t="n">
         <v>63.32309198384084</v>
       </c>
       <c r="J23" t="n">
-        <v>241.2142216836713</v>
+        <v>241.2142216836714</v>
       </c>
       <c r="K23" t="n">
-        <v>558.5654298314704</v>
+        <v>558.5654298314705</v>
       </c>
       <c r="L23" t="n">
-        <v>989.1694275101597</v>
+        <v>989.1694275101599</v>
       </c>
       <c r="M23" t="n">
-        <v>1499.968780879665</v>
+        <v>1499.968780879666</v>
       </c>
       <c r="N23" t="n">
         <v>2023.647210189805</v>
@@ -6022,19 +6022,19 @@
         <v>3166.154599192042</v>
       </c>
       <c r="U23" t="n">
-        <v>3166.154599192042</v>
+        <v>2944.370735875297</v>
       </c>
       <c r="V23" t="n">
-        <v>3137.388407369652</v>
+        <v>2613.307848531726</v>
       </c>
       <c r="W23" t="n">
-        <v>2784.619752099537</v>
+        <v>2260.539193261612</v>
       </c>
       <c r="X23" t="n">
-        <v>2411.153993838458</v>
+        <v>1887.073435000532</v>
       </c>
       <c r="Y23" t="n">
-        <v>2021.014661862646</v>
+        <v>1887.073435000532</v>
       </c>
     </row>
     <row r="24">
@@ -6062,16 +6062,16 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H24" t="n">
-        <v>74.53569058914259</v>
+        <v>74.5356905891426</v>
       </c>
       <c r="I24" t="n">
         <v>63.32309198384084</v>
       </c>
       <c r="J24" t="n">
-        <v>251.7593199168289</v>
+        <v>150.455983199826</v>
       </c>
       <c r="K24" t="n">
-        <v>478.8381340525946</v>
+        <v>478.8381340525947</v>
       </c>
       <c r="L24" t="n">
         <v>830.496164079495</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.136263087477</v>
+        <v>754.2792891190359</v>
       </c>
       <c r="C25" t="n">
-        <v>390.2000801595701</v>
+        <v>676.0048608078272</v>
       </c>
       <c r="D25" t="n">
-        <v>358.1261330641443</v>
+        <v>525.8882213954914</v>
       </c>
       <c r="E25" t="n">
-        <v>210.2130394817512</v>
+        <v>377.9751278130983</v>
       </c>
       <c r="F25" t="n">
-        <v>63.32309198384084</v>
+        <v>231.085180315188</v>
       </c>
       <c r="G25" t="n">
         <v>63.32309198384084</v>
@@ -6150,13 +6150,13 @@
         <v>104.3399918147188</v>
       </c>
       <c r="K25" t="n">
-        <v>301.5801948441898</v>
+        <v>301.5801948441897</v>
       </c>
       <c r="L25" t="n">
-        <v>609.5061818997317</v>
+        <v>609.5061818997315</v>
       </c>
       <c r="M25" t="n">
-        <v>944.5600839350939</v>
+        <v>944.5600839350936</v>
       </c>
       <c r="N25" t="n">
         <v>1277.081769484202</v>
@@ -6165,34 +6165,34 @@
         <v>1568.203070768706</v>
       </c>
       <c r="P25" t="n">
-        <v>1793.786954547611</v>
+        <v>1793.78695454761</v>
       </c>
       <c r="Q25" t="n">
         <v>1866.534462590763</v>
       </c>
       <c r="R25" t="n">
-        <v>1774.03983318281</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S25" t="n">
-        <v>1774.03983318281</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="T25" t="n">
-        <v>1552.020051371872</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="U25" t="n">
-        <v>1552.020051371872</v>
+        <v>1384.709883990823</v>
       </c>
       <c r="V25" t="n">
-        <v>1297.335563165985</v>
+        <v>1384.709883990823</v>
       </c>
       <c r="W25" t="n">
-        <v>1007.918393129024</v>
+        <v>1384.709883990823</v>
       </c>
       <c r="X25" t="n">
-        <v>779.9288422310071</v>
+        <v>1156.720333092806</v>
       </c>
       <c r="Y25" t="n">
-        <v>559.136263087477</v>
+        <v>935.9277539492756</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1933.351204414324</v>
+        <v>1012.261444192776</v>
       </c>
       <c r="C26" t="n">
-        <v>1564.388687473912</v>
+        <v>643.2989272523639</v>
       </c>
       <c r="D26" t="n">
-        <v>1206.122988867162</v>
+        <v>285.0332286456134</v>
       </c>
       <c r="E26" t="n">
-        <v>820.3347362689174</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="F26" t="n">
-        <v>409.3488314793098</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="G26" t="n">
-        <v>409.3488314793098</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H26" t="n">
-        <v>110.41244886351</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I26" t="n">
         <v>63.32309198384085</v>
       </c>
       <c r="J26" t="n">
-        <v>241.2142216836719</v>
+        <v>241.2142216836724</v>
       </c>
       <c r="K26" t="n">
-        <v>558.565429831471</v>
+        <v>558.5654298314714</v>
       </c>
       <c r="L26" t="n">
-        <v>989.1694275101604</v>
+        <v>989.1694275101611</v>
       </c>
       <c r="M26" t="n">
-        <v>1499.968780879666</v>
+        <v>1499.968780879667</v>
       </c>
       <c r="N26" t="n">
-        <v>2023.647210189806</v>
+        <v>2023.647210189807</v>
       </c>
       <c r="O26" t="n">
         <v>2504.806639967976</v>
@@ -6259,19 +6259,19 @@
         <v>2846.297917107474</v>
       </c>
       <c r="U26" t="n">
-        <v>2617.182747028009</v>
+        <v>2846.297917107474</v>
       </c>
       <c r="V26" t="n">
-        <v>2286.119859684438</v>
+        <v>2515.235029763903</v>
       </c>
       <c r="W26" t="n">
-        <v>1933.351204414324</v>
+        <v>2162.466374493789</v>
       </c>
       <c r="X26" t="n">
-        <v>1933.351204414324</v>
+        <v>1789.000616232709</v>
       </c>
       <c r="Y26" t="n">
-        <v>1933.351204414324</v>
+        <v>1398.861284256897</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>63.32309198384085</v>
       </c>
       <c r="J27" t="n">
-        <v>150.4559831998261</v>
+        <v>251.7593199168291</v>
       </c>
       <c r="K27" t="n">
-        <v>377.5347973355916</v>
+        <v>478.8381340525947</v>
       </c>
       <c r="L27" t="n">
-        <v>729.1928273624919</v>
+        <v>830.496164079495</v>
       </c>
       <c r="M27" t="n">
         <v>1260.221366655439</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>270.0301643018805</v>
+        <v>498.367598245741</v>
       </c>
       <c r="C28" t="n">
-        <v>270.0301643018805</v>
+        <v>498.367598245741</v>
       </c>
       <c r="D28" t="n">
-        <v>231.085180315188</v>
+        <v>498.367598245741</v>
       </c>
       <c r="E28" t="n">
-        <v>231.085180315188</v>
+        <v>377.8291686294451</v>
       </c>
       <c r="F28" t="n">
-        <v>231.085180315188</v>
+        <v>377.8291686294451</v>
       </c>
       <c r="G28" t="n">
-        <v>63.32309198384085</v>
+        <v>210.067080298098</v>
       </c>
       <c r="H28" t="n">
         <v>63.32309198384085</v>
@@ -6408,28 +6408,28 @@
         <v>1866.534462590763</v>
       </c>
       <c r="R28" t="n">
-        <v>1774.03983318281</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S28" t="n">
-        <v>1774.03983318281</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="T28" t="n">
-        <v>1552.020051371872</v>
+        <v>1451.796200965481</v>
       </c>
       <c r="U28" t="n">
-        <v>1262.913952586275</v>
+        <v>1162.690102179885</v>
       </c>
       <c r="V28" t="n">
-        <v>1008.229464380389</v>
+        <v>908.005613973998</v>
       </c>
       <c r="W28" t="n">
-        <v>718.812294343428</v>
+        <v>908.005613973998</v>
       </c>
       <c r="X28" t="n">
-        <v>490.8227434454107</v>
+        <v>680.0160630759807</v>
       </c>
       <c r="Y28" t="n">
-        <v>270.0301643018805</v>
+        <v>680.0160630759807</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1832.691274734935</v>
+        <v>1222.581584858505</v>
       </c>
       <c r="C29" t="n">
-        <v>1621.327530536831</v>
+        <v>1222.581584858505</v>
       </c>
       <c r="D29" t="n">
-        <v>1621.327530536831</v>
+        <v>864.315886251754</v>
       </c>
       <c r="E29" t="n">
-        <v>1235.539277938586</v>
+        <v>478.5276336535098</v>
       </c>
       <c r="F29" t="n">
-        <v>824.5533731489787</v>
+        <v>478.5276336535098</v>
       </c>
       <c r="G29" t="n">
-        <v>409.3488314793098</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H29" t="n">
-        <v>110.41244886351</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I29" t="n">
         <v>63.32309198384085</v>
@@ -6490,25 +6490,25 @@
         <v>3166.154599192042</v>
       </c>
       <c r="S29" t="n">
-        <v>3052.8538953287</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="T29" t="n">
-        <v>2846.297917107474</v>
+        <v>2959.598620970817</v>
       </c>
       <c r="U29" t="n">
-        <v>2592.756873060137</v>
+        <v>2706.05757692348</v>
       </c>
       <c r="V29" t="n">
-        <v>2592.756873060137</v>
+        <v>2374.994689579909</v>
       </c>
       <c r="W29" t="n">
-        <v>2592.756873060137</v>
+        <v>2022.226034309795</v>
       </c>
       <c r="X29" t="n">
-        <v>2219.291114799057</v>
+        <v>1648.760276048715</v>
       </c>
       <c r="Y29" t="n">
-        <v>2219.291114799057</v>
+        <v>1609.181424922626</v>
       </c>
     </row>
     <row r="30">
@@ -6545,10 +6545,10 @@
         <v>150.4559831998261</v>
       </c>
       <c r="K30" t="n">
-        <v>377.5347973355916</v>
+        <v>478.8381340525947</v>
       </c>
       <c r="L30" t="n">
-        <v>729.1928273624919</v>
+        <v>830.496164079495</v>
       </c>
       <c r="M30" t="n">
         <v>1260.221366655439</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>843.1220532899582</v>
+        <v>844.9410437357341</v>
       </c>
       <c r="C31" t="n">
-        <v>674.1858703620513</v>
+        <v>676.0048608078272</v>
       </c>
       <c r="D31" t="n">
-        <v>524.0692309497156</v>
+        <v>525.8882213954914</v>
       </c>
       <c r="E31" t="n">
-        <v>376.1561373673225</v>
+        <v>377.9751278130983</v>
       </c>
       <c r="F31" t="n">
         <v>231.085180315188</v>
@@ -6645,28 +6645,28 @@
         <v>1866.534462590763</v>
       </c>
       <c r="R31" t="n">
-        <v>1774.03983318281</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S31" t="n">
-        <v>1581.321353368466</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="T31" t="n">
-        <v>1581.321353368466</v>
+        <v>1451.796200965481</v>
       </c>
       <c r="U31" t="n">
-        <v>1581.321353368466</v>
+        <v>1451.796200965481</v>
       </c>
       <c r="V31" t="n">
-        <v>1581.321353368466</v>
+        <v>1197.111712759594</v>
       </c>
       <c r="W31" t="n">
-        <v>1291.904183331506</v>
+        <v>907.6945427226337</v>
       </c>
       <c r="X31" t="n">
-        <v>1063.914632433488</v>
+        <v>907.6945427226337</v>
       </c>
       <c r="Y31" t="n">
-        <v>843.1220532899582</v>
+        <v>907.6945427226337</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1621.327530536831</v>
+        <v>1680.656846527781</v>
       </c>
       <c r="C32" t="n">
-        <v>1621.327530536831</v>
+        <v>1680.656846527781</v>
       </c>
       <c r="D32" t="n">
-        <v>1621.327530536831</v>
+        <v>1322.391147921031</v>
       </c>
       <c r="E32" t="n">
-        <v>1235.539277938586</v>
+        <v>936.6028953227865</v>
       </c>
       <c r="F32" t="n">
-        <v>824.5533731489788</v>
+        <v>525.6169905331789</v>
       </c>
       <c r="G32" t="n">
-        <v>409.3488314793099</v>
+        <v>110.41244886351</v>
       </c>
       <c r="H32" t="n">
         <v>110.41244886351</v>
@@ -6700,19 +6700,19 @@
         <v>63.32309198384083</v>
       </c>
       <c r="J32" t="n">
-        <v>241.2142216836714</v>
+        <v>241.2142216836711</v>
       </c>
       <c r="K32" t="n">
-        <v>558.5654298314703</v>
+        <v>558.5654298314701</v>
       </c>
       <c r="L32" t="n">
         <v>989.1694275101599</v>
       </c>
       <c r="M32" t="n">
-        <v>1499.968780879666</v>
+        <v>1499.968780879665</v>
       </c>
       <c r="N32" t="n">
-        <v>2023.647210189806</v>
+        <v>2023.647210189805</v>
       </c>
       <c r="O32" t="n">
         <v>2504.806639967975</v>
@@ -6733,19 +6733,19 @@
         <v>3052.853895328699</v>
       </c>
       <c r="U32" t="n">
-        <v>3052.853895328699</v>
+        <v>2810.164673837829</v>
       </c>
       <c r="V32" t="n">
-        <v>3052.853895328699</v>
+        <v>2810.164673837829</v>
       </c>
       <c r="W32" t="n">
-        <v>2771.532460837844</v>
+        <v>2457.396018567715</v>
       </c>
       <c r="X32" t="n">
-        <v>2398.066702576764</v>
+        <v>2457.396018567715</v>
       </c>
       <c r="Y32" t="n">
-        <v>2007.927370600952</v>
+        <v>2067.256686591903</v>
       </c>
     </row>
     <row r="33">
@@ -6773,37 +6773,37 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H33" t="n">
-        <v>74.53569058914263</v>
+        <v>74.5356905891426</v>
       </c>
       <c r="I33" t="n">
         <v>63.32309198384083</v>
       </c>
       <c r="J33" t="n">
-        <v>150.455983199826</v>
+        <v>251.7593199168291</v>
       </c>
       <c r="K33" t="n">
-        <v>377.5347973355915</v>
+        <v>478.8381340525947</v>
       </c>
       <c r="L33" t="n">
-        <v>729.1928273624917</v>
+        <v>830.496164079495</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.918029938435</v>
+        <v>1260.221366655439</v>
       </c>
       <c r="N33" t="n">
-        <v>1614.425424855064</v>
+        <v>1715.728761572067</v>
       </c>
       <c r="O33" t="n">
-        <v>2008.905905412157</v>
+        <v>2110.209242129161</v>
       </c>
       <c r="P33" t="n">
-        <v>2306.178202829445</v>
+        <v>2407.481539546449</v>
       </c>
       <c r="Q33" t="n">
-        <v>2556.28100140804</v>
+        <v>2556.281001408039</v>
       </c>
       <c r="R33" t="n">
-        <v>2556.28100140804</v>
+        <v>2556.281001408039</v>
       </c>
       <c r="S33" t="n">
         <v>2425.53035422514</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>232.2592749117478</v>
+        <v>823.9229437186441</v>
       </c>
       <c r="C34" t="n">
-        <v>63.32309198384083</v>
+        <v>654.9867607907372</v>
       </c>
       <c r="D34" t="n">
-        <v>63.32309198384083</v>
+        <v>504.8701213784014</v>
       </c>
       <c r="E34" t="n">
-        <v>63.32309198384083</v>
+        <v>356.9570277960083</v>
       </c>
       <c r="F34" t="n">
-        <v>63.32309198384083</v>
+        <v>210.067080298098</v>
       </c>
       <c r="G34" t="n">
-        <v>63.32309198384083</v>
+        <v>210.067080298098</v>
       </c>
       <c r="H34" t="n">
         <v>63.32309198384083</v>
@@ -6867,10 +6867,10 @@
         <v>609.5061818997315</v>
       </c>
       <c r="M34" t="n">
-        <v>944.5600839350935</v>
+        <v>944.5600839350936</v>
       </c>
       <c r="N34" t="n">
-        <v>1277.081769484201</v>
+        <v>1277.081769484202</v>
       </c>
       <c r="O34" t="n">
         <v>1568.203070768706</v>
@@ -6882,28 +6882,28 @@
         <v>1866.534462590763</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.534462590763</v>
+        <v>1774.03983318281</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.534462590763</v>
+        <v>1581.321353368466</v>
       </c>
       <c r="T34" t="n">
-        <v>1695.897626811979</v>
+        <v>1359.301571557528</v>
       </c>
       <c r="U34" t="n">
-        <v>1406.791528026383</v>
+        <v>1359.301571557528</v>
       </c>
       <c r="V34" t="n">
-        <v>1152.107039820496</v>
+        <v>1359.301571557528</v>
       </c>
       <c r="W34" t="n">
-        <v>862.689869783535</v>
+        <v>1069.884401520568</v>
       </c>
       <c r="X34" t="n">
-        <v>634.7003188855176</v>
+        <v>841.8948506225502</v>
       </c>
       <c r="Y34" t="n">
-        <v>413.9077397419875</v>
+        <v>841.8948506225502</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>790.551307531003</v>
+        <v>1915.678136606079</v>
       </c>
       <c r="C35" t="n">
-        <v>421.5887905905913</v>
+        <v>1546.715619665668</v>
       </c>
       <c r="D35" t="n">
-        <v>63.32309198384083</v>
+        <v>1188.449921058917</v>
       </c>
       <c r="E35" t="n">
-        <v>63.32309198384083</v>
+        <v>1188.449921058917</v>
       </c>
       <c r="F35" t="n">
-        <v>63.32309198384083</v>
+        <v>777.4640162693097</v>
       </c>
       <c r="G35" t="n">
-        <v>63.32309198384083</v>
+        <v>362.2594745996407</v>
       </c>
       <c r="H35" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I35" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J35" t="n">
-        <v>241.2142216836714</v>
+        <v>241.214221683671</v>
       </c>
       <c r="K35" t="n">
-        <v>558.5654298314703</v>
+        <v>558.5654298314698</v>
       </c>
       <c r="L35" t="n">
-        <v>989.1694275101604</v>
+        <v>989.1694275101599</v>
       </c>
       <c r="M35" t="n">
         <v>1499.968780879666</v>
@@ -6964,25 +6964,25 @@
         <v>3166.154599192042</v>
       </c>
       <c r="S35" t="n">
-        <v>3084.684802714264</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="T35" t="n">
-        <v>2878.128824493038</v>
+        <v>3166.154599192042</v>
       </c>
       <c r="U35" t="n">
-        <v>2624.587780445701</v>
+        <v>3028.512390201395</v>
       </c>
       <c r="V35" t="n">
-        <v>2293.524893102131</v>
+        <v>3028.512390201395</v>
       </c>
       <c r="W35" t="n">
-        <v>1940.756237832016</v>
+        <v>2675.743734931281</v>
       </c>
       <c r="X35" t="n">
-        <v>1567.290479570936</v>
+        <v>2302.277976670201</v>
       </c>
       <c r="Y35" t="n">
-        <v>1177.151147595125</v>
+        <v>2302.277976670201</v>
       </c>
     </row>
     <row r="36">
@@ -7010,37 +7010,37 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H36" t="n">
-        <v>74.53569058914263</v>
+        <v>74.53569058914262</v>
       </c>
       <c r="I36" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J36" t="n">
-        <v>150.455983199826</v>
+        <v>150.4559831998261</v>
       </c>
       <c r="K36" t="n">
-        <v>377.5347973355915</v>
+        <v>478.8381340525947</v>
       </c>
       <c r="L36" t="n">
-        <v>729.1928273624917</v>
+        <v>830.496164079495</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.918029938435</v>
+        <v>1260.221366655439</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.728761572069</v>
+        <v>1715.728761572067</v>
       </c>
       <c r="O36" t="n">
-        <v>2110.209242129162</v>
+        <v>2110.209242129161</v>
       </c>
       <c r="P36" t="n">
         <v>2407.481539546449</v>
       </c>
       <c r="Q36" t="n">
-        <v>2556.28100140804</v>
+        <v>2556.281001408039</v>
       </c>
       <c r="R36" t="n">
-        <v>2556.28100140804</v>
+        <v>2556.281001408039</v>
       </c>
       <c r="S36" t="n">
         <v>2425.53035422514</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>331.9961726934231</v>
+        <v>438.1671817742056</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9961726934231</v>
+        <v>377.9751278130983</v>
       </c>
       <c r="D37" t="n">
-        <v>331.9961726934231</v>
+        <v>377.9751278130983</v>
       </c>
       <c r="E37" t="n">
-        <v>331.9961726934231</v>
+        <v>377.9751278130983</v>
       </c>
       <c r="F37" t="n">
-        <v>331.9961726934231</v>
+        <v>231.085180315188</v>
       </c>
       <c r="G37" t="n">
-        <v>309.1746178767222</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="H37" t="n">
-        <v>162.4306295624651</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="I37" t="n">
-        <v>63.32309198384083</v>
+        <v>63.32309198384085</v>
       </c>
       <c r="J37" t="n">
         <v>104.3399918147188</v>
@@ -7104,10 +7104,10 @@
         <v>609.5061818997315</v>
       </c>
       <c r="M37" t="n">
-        <v>944.5600839350935</v>
+        <v>944.5600839350936</v>
       </c>
       <c r="N37" t="n">
-        <v>1277.081769484201</v>
+        <v>1277.081769484202</v>
       </c>
       <c r="O37" t="n">
         <v>1568.203070768706</v>
@@ -7119,28 +7119,28 @@
         <v>1866.534462590763</v>
       </c>
       <c r="R37" t="n">
-        <v>1774.03983318281</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S37" t="n">
-        <v>1581.321353368466</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="T37" t="n">
-        <v>1359.301571557528</v>
+        <v>1673.81598277642</v>
       </c>
       <c r="U37" t="n">
-        <v>1070.195472771931</v>
+        <v>1384.709883990823</v>
       </c>
       <c r="V37" t="n">
-        <v>1070.195472771931</v>
+        <v>1130.025395784936</v>
       </c>
       <c r="W37" t="n">
-        <v>780.7783027349706</v>
+        <v>840.6082257479754</v>
       </c>
       <c r="X37" t="n">
-        <v>552.7887518369532</v>
+        <v>840.6082257479754</v>
       </c>
       <c r="Y37" t="n">
-        <v>331.9961726934231</v>
+        <v>619.8156466044453</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1351.876218430783</v>
+        <v>1452.042840491085</v>
       </c>
       <c r="C38" t="n">
-        <v>982.9137014903717</v>
+        <v>1135.72971487606</v>
       </c>
       <c r="D38" t="n">
-        <v>982.9137014903717</v>
+        <v>777.4640162693096</v>
       </c>
       <c r="E38" t="n">
-        <v>597.1254488921275</v>
+        <v>777.4640162693096</v>
       </c>
       <c r="F38" t="n">
-        <v>597.1254488921275</v>
+        <v>777.4640162693096</v>
       </c>
       <c r="G38" t="n">
-        <v>181.9209072224585</v>
+        <v>362.2594745996407</v>
       </c>
       <c r="H38" t="n">
-        <v>110.41244886351</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="I38" t="n">
-        <v>63.3230919838408</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J38" t="n">
         <v>241.214221683671</v>
@@ -7180,7 +7180,7 @@
         <v>558.5654298314698</v>
       </c>
       <c r="L38" t="n">
-        <v>989.1694275101588</v>
+        <v>989.169427510159</v>
       </c>
       <c r="M38" t="n">
         <v>1499.968780879664</v>
@@ -7189,37 +7189,37 @@
         <v>2023.647210189804</v>
       </c>
       <c r="O38" t="n">
-        <v>2504.806639967973</v>
+        <v>2504.806639967974</v>
       </c>
       <c r="P38" t="n">
-        <v>2880.964080407847</v>
+        <v>2880.964080407848</v>
       </c>
       <c r="Q38" t="n">
-        <v>3115.269906120537</v>
+        <v>3115.269906120538</v>
       </c>
       <c r="R38" t="n">
-        <v>3166.15459919204</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="S38" t="n">
-        <v>3052.853895328697</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="T38" t="n">
-        <v>3052.853895328697</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="U38" t="n">
-        <v>2799.31285128136</v>
+        <v>2912.613555144704</v>
       </c>
       <c r="V38" t="n">
-        <v>2468.249963937789</v>
+        <v>2581.550667801133</v>
       </c>
       <c r="W38" t="n">
-        <v>2115.481308667675</v>
+        <v>2228.782012531019</v>
       </c>
       <c r="X38" t="n">
-        <v>1742.015550406595</v>
+        <v>2228.782012531019</v>
       </c>
       <c r="Y38" t="n">
-        <v>1351.876218430783</v>
+        <v>1838.642680555207</v>
       </c>
     </row>
     <row r="39">
@@ -7247,13 +7247,13 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H39" t="n">
-        <v>74.53569058914259</v>
+        <v>74.53569058914262</v>
       </c>
       <c r="I39" t="n">
-        <v>63.3230919838408</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J39" t="n">
-        <v>150.4559831998259</v>
+        <v>251.7593199168309</v>
       </c>
       <c r="K39" t="n">
         <v>478.8381340525964</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2390.412706229892</v>
+        <v>677.1789554043869</v>
       </c>
       <c r="C40" t="n">
-        <v>2221.476523301985</v>
+        <v>508.24277247648</v>
       </c>
       <c r="D40" t="n">
-        <v>2071.359883889649</v>
+        <v>358.1261330641443</v>
       </c>
       <c r="E40" t="n">
-        <v>1923.446790307256</v>
+        <v>210.2130394817512</v>
       </c>
       <c r="F40" t="n">
-        <v>1776.556842809346</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="G40" t="n">
-        <v>1608.794754477999</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="H40" t="n">
-        <v>1462.050766163742</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="I40" t="n">
-        <v>1362.943228585117</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J40" t="n">
-        <v>1403.960128415995</v>
+        <v>104.3399918147188</v>
       </c>
       <c r="K40" t="n">
-        <v>1601.200331445466</v>
+        <v>301.5801948441896</v>
       </c>
       <c r="L40" t="n">
-        <v>1909.126318501008</v>
+        <v>609.5061818997315</v>
       </c>
       <c r="M40" t="n">
-        <v>2244.18022053637</v>
+        <v>944.5600839350935</v>
       </c>
       <c r="N40" t="n">
-        <v>2576.701906085478</v>
+        <v>1277.081769484201</v>
       </c>
       <c r="O40" t="n">
-        <v>2867.823207369983</v>
+        <v>1568.203070768706</v>
       </c>
       <c r="P40" t="n">
-        <v>3093.407091148887</v>
+        <v>1793.78695454761</v>
       </c>
       <c r="Q40" t="n">
-        <v>3166.15459919204</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="R40" t="n">
-        <v>3166.15459919204</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S40" t="n">
-        <v>3166.15459919204</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="T40" t="n">
-        <v>3166.15459919204</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="U40" t="n">
-        <v>3166.15459919204</v>
+        <v>1577.428363805166</v>
       </c>
       <c r="V40" t="n">
-        <v>3166.15459919204</v>
+        <v>1322.743875599279</v>
       </c>
       <c r="W40" t="n">
-        <v>3020.843301101679</v>
+        <v>1307.609550276174</v>
       </c>
       <c r="X40" t="n">
-        <v>2792.853750203662</v>
+        <v>1079.619999378157</v>
       </c>
       <c r="Y40" t="n">
-        <v>2572.061171060132</v>
+        <v>858.8274202346266</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1979.593229143581</v>
+        <v>1247.779237049868</v>
       </c>
       <c r="C41" t="n">
-        <v>1979.593229143581</v>
+        <v>1247.779237049868</v>
       </c>
       <c r="D41" t="n">
-        <v>1621.327530536831</v>
+        <v>889.5135384431173</v>
       </c>
       <c r="E41" t="n">
-        <v>1235.539277938586</v>
+        <v>889.5135384431173</v>
       </c>
       <c r="F41" t="n">
-        <v>824.5533731489787</v>
+        <v>478.5276336535097</v>
       </c>
       <c r="G41" t="n">
-        <v>409.3488314793098</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="H41" t="n">
-        <v>110.41244886351</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="I41" t="n">
-        <v>63.3230919838408</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J41" t="n">
         <v>241.214221683671</v>
@@ -7429,34 +7429,34 @@
         <v>2504.806639967974</v>
       </c>
       <c r="P41" t="n">
-        <v>2880.964080407847</v>
+        <v>2880.964080407848</v>
       </c>
       <c r="Q41" t="n">
-        <v>3115.269906120537</v>
+        <v>3115.269906120538</v>
       </c>
       <c r="R41" t="n">
-        <v>3166.15459919204</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="S41" t="n">
-        <v>3074.261206724043</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="T41" t="n">
-        <v>3074.261206724043</v>
+        <v>2959.598620970815</v>
       </c>
       <c r="U41" t="n">
-        <v>3074.261206724043</v>
+        <v>2729.047054694452</v>
       </c>
       <c r="V41" t="n">
-        <v>2743.198319380473</v>
+        <v>2397.984167350881</v>
       </c>
       <c r="W41" t="n">
-        <v>2743.198319380473</v>
+        <v>2397.984167350881</v>
       </c>
       <c r="X41" t="n">
-        <v>2369.732561119393</v>
+        <v>2024.518409089801</v>
       </c>
       <c r="Y41" t="n">
-        <v>1979.593229143581</v>
+        <v>1634.37907711399</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H42" t="n">
-        <v>74.53569058914259</v>
+        <v>74.53569058914262</v>
       </c>
       <c r="I42" t="n">
-        <v>63.3230919838408</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J42" t="n">
-        <v>150.4559831998259</v>
+        <v>251.7593199168309</v>
       </c>
       <c r="K42" t="n">
-        <v>377.5347973355914</v>
+        <v>478.8381340525964</v>
       </c>
       <c r="L42" t="n">
-        <v>729.1928273624916</v>
+        <v>830.4961640794966</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.918029938435</v>
+        <v>1260.22136665544</v>
       </c>
       <c r="N42" t="n">
-        <v>1675.104528236169</v>
+        <v>1715.728761572069</v>
       </c>
       <c r="O42" t="n">
-        <v>2069.585008793262</v>
+        <v>2110.209242129162</v>
       </c>
       <c r="P42" t="n">
-        <v>2366.85730621055</v>
+        <v>2407.481539546449</v>
       </c>
       <c r="Q42" t="n">
-        <v>2515.65676807214</v>
+        <v>2556.28100140804</v>
       </c>
       <c r="R42" t="n">
         <v>2556.28100140804</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>439.764877900144</v>
+        <v>841.5683926376555</v>
       </c>
       <c r="C43" t="n">
-        <v>270.8286949722371</v>
+        <v>672.6322097097486</v>
       </c>
       <c r="D43" t="n">
-        <v>270.8286949722371</v>
+        <v>672.6322097097486</v>
       </c>
       <c r="E43" t="n">
-        <v>270.8286949722371</v>
+        <v>524.7191161273555</v>
       </c>
       <c r="F43" t="n">
-        <v>270.8286949722371</v>
+        <v>377.8291686294451</v>
       </c>
       <c r="G43" t="n">
-        <v>103.06660664089</v>
+        <v>210.067080298098</v>
       </c>
       <c r="H43" t="n">
-        <v>103.06660664089</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="I43" t="n">
-        <v>63.3230919838408</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J43" t="n">
-        <v>104.3399918147187</v>
+        <v>104.3399918147188</v>
       </c>
       <c r="K43" t="n">
         <v>301.5801948441896</v>
@@ -7593,28 +7593,28 @@
         <v>1866.534462590763</v>
       </c>
       <c r="R43" t="n">
-        <v>1774.03983318281</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="S43" t="n">
-        <v>1581.321353368466</v>
+        <v>1866.534462590763</v>
       </c>
       <c r="T43" t="n">
-        <v>1359.301571557528</v>
+        <v>1644.514680779825</v>
       </c>
       <c r="U43" t="n">
-        <v>1070.195472771931</v>
+        <v>1644.514680779825</v>
       </c>
       <c r="V43" t="n">
-        <v>1070.195472771931</v>
+        <v>1644.514680779825</v>
       </c>
       <c r="W43" t="n">
-        <v>1070.195472771931</v>
+        <v>1355.097510742864</v>
       </c>
       <c r="X43" t="n">
-        <v>842.2059218739139</v>
+        <v>1127.107959844847</v>
       </c>
       <c r="Y43" t="n">
-        <v>621.4133427303838</v>
+        <v>1023.216857467895</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1351.876218430783</v>
+        <v>1452.042840491085</v>
       </c>
       <c r="C44" t="n">
-        <v>1275.301791041362</v>
+        <v>1083.080323550673</v>
       </c>
       <c r="D44" t="n">
-        <v>1275.301791041362</v>
+        <v>1083.080323550673</v>
       </c>
       <c r="E44" t="n">
-        <v>889.5135384431173</v>
+        <v>1083.080323550673</v>
       </c>
       <c r="F44" t="n">
-        <v>478.5276336535097</v>
+        <v>777.4640162693096</v>
       </c>
       <c r="G44" t="n">
-        <v>63.3230919838408</v>
+        <v>362.2594745996407</v>
       </c>
       <c r="H44" t="n">
-        <v>63.3230919838408</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="I44" t="n">
-        <v>63.3230919838408</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J44" t="n">
         <v>241.214221683671</v>
@@ -7666,34 +7666,34 @@
         <v>2504.806639967974</v>
       </c>
       <c r="P44" t="n">
-        <v>2880.964080407847</v>
+        <v>2880.964080407848</v>
       </c>
       <c r="Q44" t="n">
-        <v>3115.269906120537</v>
+        <v>3115.269906120538</v>
       </c>
       <c r="R44" t="n">
-        <v>3166.15459919204</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="S44" t="n">
-        <v>3052.853895328697</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="T44" t="n">
-        <v>3052.853895328697</v>
+        <v>3166.154599192041</v>
       </c>
       <c r="U44" t="n">
-        <v>2799.31285128136</v>
+        <v>2912.613555144704</v>
       </c>
       <c r="V44" t="n">
-        <v>2468.249963937789</v>
+        <v>2581.550667801133</v>
       </c>
       <c r="W44" t="n">
-        <v>2115.481308667675</v>
+        <v>2228.782012531019</v>
       </c>
       <c r="X44" t="n">
-        <v>1742.015550406595</v>
+        <v>2228.782012531019</v>
       </c>
       <c r="Y44" t="n">
-        <v>1351.876218430783</v>
+        <v>1838.642680555207</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>165.7201585072108</v>
       </c>
       <c r="H45" t="n">
-        <v>74.53569058914259</v>
+        <v>74.53569058914262</v>
       </c>
       <c r="I45" t="n">
-        <v>63.3230919838408</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J45" t="n">
         <v>251.7593199168309</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>844.9410437357341</v>
+        <v>527.0623159920511</v>
       </c>
       <c r="C46" t="n">
-        <v>676.0048608078272</v>
+        <v>358.1261330641443</v>
       </c>
       <c r="D46" t="n">
-        <v>525.8882213954914</v>
+        <v>358.1261330641443</v>
       </c>
       <c r="E46" t="n">
-        <v>377.9751278130983</v>
+        <v>210.2130394817512</v>
       </c>
       <c r="F46" t="n">
-        <v>231.0851803151879</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="G46" t="n">
-        <v>63.3230919838408</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="H46" t="n">
-        <v>63.3230919838408</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="I46" t="n">
-        <v>63.3230919838408</v>
+        <v>63.32309198384082</v>
       </c>
       <c r="J46" t="n">
-        <v>104.3399918147187</v>
+        <v>104.3399918147188</v>
       </c>
       <c r="K46" t="n">
         <v>301.5801948441896</v>
@@ -7833,25 +7833,25 @@
         <v>1866.534462590763</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.534462590763</v>
+        <v>1673.815982776419</v>
       </c>
       <c r="T46" t="n">
-        <v>1866.534462590763</v>
+        <v>1480.801989963156</v>
       </c>
       <c r="U46" t="n">
-        <v>1730.056126813408</v>
+        <v>1480.801989963156</v>
       </c>
       <c r="V46" t="n">
-        <v>1475.371638607521</v>
+        <v>1226.117501757269</v>
       </c>
       <c r="W46" t="n">
-        <v>1475.371638607521</v>
+        <v>936.7003317203082</v>
       </c>
       <c r="X46" t="n">
-        <v>1247.382087709504</v>
+        <v>708.7107808222909</v>
       </c>
       <c r="Y46" t="n">
-        <v>1026.589508565974</v>
+        <v>708.7107808222909</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3266027444475</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>102.3266027444473</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4.487090684149081</v>
+        <v>4.487090684149052</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3266027444476</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>102.3266027444474</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.487090684149081</v>
+        <v>4.487090684149052</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.29202361727582</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>102.3266027444475</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>4.487090684149081</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>102.3266027444473</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.3266027444479</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4.487090684149081</v>
+        <v>4.487090684149052</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3266027444473</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>102.3266027444475</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.487090684149052</v>
+        <v>4.487090684149081</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>102.3266027444476</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3266027444476</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>102.3266027444475</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3266027444476</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>102.3266027444476</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.3266027444494</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.487090684149109</v>
+        <v>4.487090684149081</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>102.3266027444475</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>102.3266027444494</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.487090684149109</v>
+        <v>4.487090684149081</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>102.3266027444494</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3266027444495</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>102.3266027444494</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>61.29202361727801</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>4.487090684149109</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3266027444495</v>
+        <v>102.3266027444494</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.01702407393689</v>
+        <v>14.01702407393691</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.01702407393691</v>
+        <v>14.01702407393689</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>398.4850070415999</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.71661256727526</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>204.4904184390135</v>
@@ -23317,13 +23317,13 @@
         <v>251.0056336068635</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0844674480336</v>
+        <v>93.77292657896513</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.11646220283797</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.7912950162003</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>38.75300903909343</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.0524962529722</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>112.1676968247093</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.0056336068635</v>
       </c>
       <c r="V14" t="n">
-        <v>299.2737285659681</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>180.5764057571266</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0844674480336</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.11646220283797</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>91.56968311387365</v>
+        <v>91.56968311387364</v>
       </c>
       <c r="S16" t="n">
-        <v>190.7912950162003</v>
+        <v>74.41359048940448</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7995839928288</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>142.664813227134</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.78582941672619</v>
+        <v>14.92012647302164</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T17" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0056336068635</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0844674480336</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>91.56968311387365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>48.83705619743975</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>76.30393214914403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>96.78485312024821</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.0524962529722</v>
       </c>
       <c r="H20" t="n">
-        <v>10.07216086758001</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I20" t="n">
-        <v>46.61846331087241</v>
+        <v>46.61846331087239</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>132.5927216244085</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.11646220283797</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>91.56968311387364</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2150377977404</v>
+        <v>123.3081270422642</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>411.0524962529722</v>
       </c>
       <c r="H23" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>46.61846331087241</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>204.4904184390135</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0056336068635</v>
+        <v>31.4396089232861</v>
       </c>
       <c r="V23" t="n">
-        <v>299.2737285659686</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>89.75513707053125</v>
       </c>
       <c r="D25" t="n">
-        <v>116.8622653937408</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0844674480336</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>145.2765484311146</v>
       </c>
       <c r="I25" t="n">
-        <v>98.11646220283797</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>91.56968311387365</v>
       </c>
       <c r="S25" t="n">
-        <v>190.7912950162003</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>162.437334777107</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.0524962529722</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>46.61846331087241</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>24.18161522819281</v>
+        <v>251.0056336068635</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0599388713867</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.10091732643629</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.11646220283799</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>91.56968311387365</v>
       </c>
       <c r="S28" t="n">
-        <v>190.7912950162003</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>156.0227850148839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>46.61846331087241</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>347.0548760412258</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>117.7060161849066</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.800800541318125</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.56968311387365</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.7995839928288</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2150377977404</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>204.4904184390135</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0056336068635</v>
+        <v>10.74330433090233</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>70.73274857146686</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>162.0397923470703</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0844674480336</v>
       </c>
       <c r="H34" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.11646220283799</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>91.56968311387367</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.7912950162003</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>50.8691165718329</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0524962529722</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>46.61846331087247</v>
+        <v>46.61846331087241</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.51259831170964</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>204.4904184390135</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>114.7398467061226</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>107.6566876771317</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>143.4911281794998</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>91.56968311387365</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7995839928288</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>52.12289741213283</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>225.1536450142827</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>46.61846331087247</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T38" t="n">
         <v>204.4904184390135</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0844674480336</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.2765484311146</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>219.7995839928288</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2150377977404</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>142.6648132271335</v>
+        <v>271.5400162667168</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>295.9470187896418</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>46.61846331087247</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.19323828139291</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T41" t="n">
-        <v>204.4904184390135</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0056336068635</v>
+        <v>22.7595829932643</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.2765484311146</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>58.77038269235928</v>
+        <v>98.11646220283799</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>91.56968311387367</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>190.7912950162003</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>115.7324619989129</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>289.46420865548</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>104.3159015331612</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>295.9470187896418</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>46.61846331087247</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>112.1676968247093</v>
       </c>
       <c r="T44" t="n">
         <v>204.4904184390135</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0844674480336</v>
       </c>
       <c r="H46" t="n">
         <v>145.2765484311146</v>
@@ -26073,25 +26073,25 @@
         <v>91.56968311387367</v>
       </c>
       <c r="S46" t="n">
-        <v>190.7912950162003</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7995839928288</v>
+        <v>28.71573110769816</v>
       </c>
       <c r="U46" t="n">
-        <v>151.1014853781593</v>
+        <v>286.2150377977404</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719075.6118036078</v>
+        <v>719075.6118036074</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719075.6118036074</v>
+        <v>719075.6118036075</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719075.6118036075</v>
+        <v>719075.6118036074</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719075.6118036073</v>
+        <v>719075.6118036072</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573565.0770548703</v>
+        <v>573565.0770548704</v>
       </c>
       <c r="C2" t="n">
-        <v>573565.0770548703</v>
+        <v>573565.0770548702</v>
       </c>
       <c r="D2" t="n">
-        <v>573565.0770548704</v>
+        <v>573565.0770548702</v>
       </c>
       <c r="E2" t="n">
-        <v>467152.0783353363</v>
+        <v>467152.0783353361</v>
       </c>
       <c r="F2" t="n">
-        <v>467152.0783353363</v>
+        <v>467152.0783353362</v>
       </c>
       <c r="G2" t="n">
         <v>467152.0783353364</v>
       </c>
       <c r="H2" t="n">
-        <v>467152.0783353364</v>
+        <v>467152.0783353361</v>
       </c>
       <c r="I2" t="n">
         <v>467152.0783353362</v>
       </c>
       <c r="J2" t="n">
+        <v>467152.0783353363</v>
+      </c>
+      <c r="K2" t="n">
         <v>467152.0783353364</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>467152.0783353363</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>467152.0783353364</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>467152.0783353364</v>
+      </c>
+      <c r="O2" t="n">
         <v>467152.0783353363</v>
-      </c>
-      <c r="N2" t="n">
-        <v>467152.0783353362</v>
-      </c>
-      <c r="O2" t="n">
-        <v>467152.0783353362</v>
       </c>
       <c r="P2" t="n">
         <v>467152.0783353362</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>828786.5250348316</v>
+        <v>828786.5250348318</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>197254.5976842634</v>
+        <v>197254.5976842635</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>358844.4244032895</v>
       </c>
       <c r="C4" t="n">
-        <v>358844.4244032896</v>
+        <v>358844.4244032895</v>
       </c>
       <c r="D4" t="n">
         <v>358844.4244032895</v>
       </c>
       <c r="E4" t="n">
-        <v>18947.43956761501</v>
+        <v>18947.439567615</v>
       </c>
       <c r="F4" t="n">
-        <v>18947.43956761501</v>
+        <v>18947.439567615</v>
       </c>
       <c r="G4" t="n">
         <v>18947.43956761501</v>
       </c>
       <c r="H4" t="n">
-        <v>18947.43956761502</v>
+        <v>18947.439567615</v>
       </c>
       <c r="I4" t="n">
-        <v>18947.439567615</v>
+        <v>18947.43956761501</v>
       </c>
       <c r="J4" t="n">
         <v>18947.43956761501</v>
@@ -26447,16 +26447,16 @@
         <v>18947.43956761501</v>
       </c>
       <c r="L4" t="n">
-        <v>18947.43956761506</v>
+        <v>18947.43956761501</v>
       </c>
       <c r="M4" t="n">
-        <v>18947.43956761506</v>
+        <v>18947.43956761501</v>
       </c>
       <c r="N4" t="n">
         <v>18947.43956761506</v>
       </c>
       <c r="O4" t="n">
-        <v>18947.43956761507</v>
+        <v>18947.43956761506</v>
       </c>
       <c r="P4" t="n">
         <v>18947.43956761506</v>
@@ -26478,19 +26478,19 @@
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>71173.54571211265</v>
+        <v>71173.54571211268</v>
       </c>
       <c r="F5" t="n">
         <v>71173.54571211267</v>
       </c>
       <c r="G5" t="n">
+        <v>71173.54571211265</v>
+      </c>
+      <c r="H5" t="n">
         <v>71173.54571211267</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>71173.54571211265</v>
-      </c>
-      <c r="I5" t="n">
-        <v>71173.54571211267</v>
       </c>
       <c r="J5" t="n">
         <v>71173.54571211267</v>
@@ -26502,16 +26502,16 @@
         <v>71173.54571211265</v>
       </c>
       <c r="M5" t="n">
-        <v>71173.54571211265</v>
+        <v>71173.54571211267</v>
       </c>
       <c r="N5" t="n">
-        <v>71173.54571211262</v>
+        <v>71173.54571211264</v>
       </c>
       <c r="O5" t="n">
-        <v>71173.54571211262</v>
+        <v>71173.54571211264</v>
       </c>
       <c r="P5" t="n">
-        <v>71173.54571211262</v>
+        <v>71173.54571211264</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134062.9337322308</v>
+        <v>-134104.5109411638</v>
       </c>
       <c r="C6" t="n">
-        <v>174120.9500883234</v>
+        <v>174079.3728793902</v>
       </c>
       <c r="D6" t="n">
-        <v>174120.9500883236</v>
+        <v>174079.3728793902</v>
       </c>
       <c r="E6" t="n">
-        <v>-451755.4319792229</v>
+        <v>-455597.4734281399</v>
       </c>
       <c r="F6" t="n">
-        <v>377031.0930556086</v>
+        <v>373189.0516066921</v>
       </c>
       <c r="G6" t="n">
-        <v>377031.0930556087</v>
+        <v>373189.0516066924</v>
       </c>
       <c r="H6" t="n">
-        <v>377031.0930556087</v>
+        <v>373189.0516066918</v>
       </c>
       <c r="I6" t="n">
-        <v>377031.0930556083</v>
+        <v>373189.0516066923</v>
       </c>
       <c r="J6" t="n">
-        <v>377031.0930556089</v>
+        <v>373189.0516066921</v>
       </c>
       <c r="K6" t="n">
-        <v>377031.0930556086</v>
+        <v>373189.0516066923</v>
       </c>
       <c r="L6" t="n">
-        <v>377031.0930556087</v>
+        <v>373189.0516066922</v>
       </c>
       <c r="M6" t="n">
-        <v>179776.4953713452</v>
+        <v>175934.4539224287</v>
       </c>
       <c r="N6" t="n">
-        <v>377031.0930556086</v>
+        <v>373189.0516066921</v>
       </c>
       <c r="O6" t="n">
-        <v>377031.0930556086</v>
+        <v>373189.0516066921</v>
       </c>
       <c r="P6" t="n">
-        <v>377031.0930556086</v>
+        <v>373189.051606692</v>
       </c>
     </row>
   </sheetData>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>791.5386497980104</v>
+        <v>791.5386497980109</v>
       </c>
       <c r="F4" t="n">
         <v>791.5386497980106</v>
       </c>
       <c r="G4" t="n">
-        <v>791.5386497980106</v>
+        <v>791.5386497980105</v>
       </c>
       <c r="H4" t="n">
         <v>791.5386497980105</v>
@@ -26822,16 +26822,16 @@
         <v>791.5386497980104</v>
       </c>
       <c r="M4" t="n">
-        <v>791.5386497980104</v>
+        <v>791.5386497980106</v>
       </c>
       <c r="N4" t="n">
-        <v>791.5386497980099</v>
+        <v>791.5386497980102</v>
       </c>
       <c r="O4" t="n">
-        <v>791.5386497980099</v>
+        <v>791.5386497980102</v>
       </c>
       <c r="P4" t="n">
-        <v>791.5386497980099</v>
+        <v>791.5386497980102</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>737.4262954649674</v>
+        <v>737.4262954649677</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>791.5386497980103</v>
+        <v>791.5386497980107</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>791.5386497980104</v>
+        <v>791.5386497980109</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>791.5386497980103</v>
+        <v>791.5386497980107</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27402,7 +27402,7 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K2" t="n">
         <v>56.54227989916996</v>
@@ -27411,13 +27411,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P2" t="n">
         <v>46.34579576917247</v>
@@ -27478,10 +27478,10 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>75.83750674330534</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J3" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K3" t="n">
         <v>26.75787480980772</v>
@@ -27560,7 +27560,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>86.22083756629321</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K4" t="n">
         <v>62.00809140979796</v>
@@ -27575,10 +27575,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q4" t="n">
         <v>103.2119976362414</v>
@@ -27639,13 +27639,13 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K5" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L5" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M5" t="n">
         <v>4.586202945486093</v>
@@ -27654,13 +27654,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P5" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R5" t="n">
         <v>134.8218408634681</v>
@@ -27721,7 +27721,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27736,10 +27736,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R6" t="n">
         <v>102.9682853879423</v>
@@ -27800,16 +27800,16 @@
         <v>86.2208375662932</v>
       </c>
       <c r="K7" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M7" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O7" t="n">
         <v>56.93882853040725</v>
@@ -31050,7 +31050,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K2" t="n">
         <v>163.5475711458106</v>
@@ -31074,13 +31074,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S2" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T2" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U2" t="n">
         <v>0.1028570752958528</v>
@@ -31129,7 +31129,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K3" t="n">
         <v>111.0835641645513</v>
@@ -31159,7 +31159,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U3" t="n">
         <v>0.04525771959877963</v>
@@ -31202,13 +31202,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I4" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K4" t="n">
         <v>67.00516676073742</v>
@@ -31223,10 +31223,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P4" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q4" t="n">
         <v>48.29300399320443</v>
@@ -31284,7 +31284,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J5" t="n">
         <v>109.1233211798925</v>
@@ -31293,7 +31293,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M5" t="n">
         <v>225.7600302817866</v>
@@ -31357,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H6" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I6" t="n">
         <v>23.68487325669467</v>
@@ -31384,13 +31384,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R6" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S6" t="n">
         <v>12.77776283338877</v>
@@ -31399,7 +31399,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H7" t="n">
         <v>5.127625437558785</v>
@@ -31448,16 +31448,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K7" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L7" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M7" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N7" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O7" t="n">
         <v>81.51770992143554</v>
@@ -31466,7 +31466,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R7" t="n">
         <v>25.93173355231669</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.250241262162851</v>
+        <v>4.250241262162852</v>
       </c>
       <c r="H11" t="n">
-        <v>43.52778332612531</v>
+        <v>43.52778332612532</v>
       </c>
       <c r="I11" t="n">
         <v>163.8574262595335</v>
@@ -31764,37 +31764,37 @@
         <v>360.7339143244947</v>
       </c>
       <c r="K11" t="n">
-        <v>540.6466269518482</v>
+        <v>540.6466269518484</v>
       </c>
       <c r="L11" t="n">
-        <v>670.7199479787647</v>
+        <v>670.7199479787649</v>
       </c>
       <c r="M11" t="n">
-        <v>746.3051760247533</v>
+        <v>746.3051760247535</v>
       </c>
       <c r="N11" t="n">
-        <v>758.3811740108736</v>
+        <v>758.3811740108738</v>
       </c>
       <c r="O11" t="n">
-        <v>716.1178374602417</v>
+        <v>716.1178374602418</v>
       </c>
       <c r="P11" t="n">
-        <v>611.1900063005962</v>
+        <v>611.1900063005963</v>
       </c>
       <c r="Q11" t="n">
-        <v>458.9782410993889</v>
+        <v>458.978241099389</v>
       </c>
       <c r="R11" t="n">
         <v>266.9842176843375</v>
       </c>
       <c r="S11" t="n">
-        <v>96.85237276153607</v>
+        <v>96.85237276153609</v>
       </c>
       <c r="T11" t="n">
-        <v>18.60543112511789</v>
+        <v>18.6054311251179</v>
       </c>
       <c r="U11" t="n">
-        <v>0.340019300973028</v>
+        <v>0.3400193009730281</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.274079558335531</v>
+        <v>2.274079558335532</v>
       </c>
       <c r="H12" t="n">
         <v>21.96282099760895</v>
       </c>
       <c r="I12" t="n">
-        <v>78.29616023216633</v>
+        <v>78.29616023216634</v>
       </c>
       <c r="J12" t="n">
         <v>214.8506480969548</v>
       </c>
       <c r="K12" t="n">
-        <v>367.2139785054353</v>
+        <v>367.2139785054354</v>
       </c>
       <c r="L12" t="n">
-        <v>493.7645111201775</v>
+        <v>493.7645111201776</v>
       </c>
       <c r="M12" t="n">
-        <v>576.1998951098404</v>
+        <v>576.1998951098406</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4501917970994</v>
+        <v>591.4501917970996</v>
       </c>
       <c r="O12" t="n">
-        <v>541.0613763202963</v>
+        <v>541.0613763202964</v>
       </c>
       <c r="P12" t="n">
         <v>434.2494553105806</v>
       </c>
       <c r="Q12" t="n">
-        <v>290.2842608149004</v>
+        <v>290.2842608149005</v>
       </c>
       <c r="R12" t="n">
         <v>141.1924132798149</v>
       </c>
       <c r="S12" t="n">
-        <v>42.2400303927674</v>
+        <v>42.24003039276742</v>
       </c>
       <c r="T12" t="n">
-        <v>9.166136465396283</v>
+        <v>9.166136465396285</v>
       </c>
       <c r="U12" t="n">
         <v>0.1496104972589166</v>
@@ -31913,43 +31913,43 @@
         <v>1.9065119104251</v>
       </c>
       <c r="H13" t="n">
-        <v>16.95062407632499</v>
+        <v>16.950624076325</v>
       </c>
       <c r="I13" t="n">
-        <v>57.3340127244203</v>
+        <v>57.33401272442031</v>
       </c>
       <c r="J13" t="n">
         <v>134.7903920670546</v>
       </c>
       <c r="K13" t="n">
-        <v>221.5020201384797</v>
+        <v>221.5020201384798</v>
       </c>
       <c r="L13" t="n">
-        <v>283.4463253008372</v>
+        <v>283.4463253008373</v>
       </c>
       <c r="M13" t="n">
         <v>298.8544079223636</v>
       </c>
       <c r="N13" t="n">
-        <v>291.7483180744157</v>
+        <v>291.7483180744158</v>
       </c>
       <c r="O13" t="n">
         <v>269.4767925753588</v>
       </c>
       <c r="P13" t="n">
-        <v>230.5839496026865</v>
+        <v>230.5839496026866</v>
       </c>
       <c r="Q13" t="n">
-        <v>159.6443746084145</v>
+        <v>159.6443746084146</v>
       </c>
       <c r="R13" t="n">
-        <v>85.72370826329583</v>
+        <v>85.72370826329585</v>
       </c>
       <c r="S13" t="n">
-        <v>33.22530302077196</v>
+        <v>33.22530302077197</v>
       </c>
       <c r="T13" t="n">
-        <v>8.146005435452697</v>
+        <v>8.146005435452699</v>
       </c>
       <c r="U13" t="n">
         <v>0.1039915587504601</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.250241262162851</v>
+        <v>4.250241262162852</v>
       </c>
       <c r="H14" t="n">
-        <v>43.52778332612531</v>
+        <v>43.52778332612532</v>
       </c>
       <c r="I14" t="n">
         <v>163.8574262595335</v>
@@ -32001,37 +32001,37 @@
         <v>360.7339143244947</v>
       </c>
       <c r="K14" t="n">
-        <v>540.6466269518482</v>
+        <v>540.6466269518484</v>
       </c>
       <c r="L14" t="n">
-        <v>670.7199479787647</v>
+        <v>670.7199479787649</v>
       </c>
       <c r="M14" t="n">
-        <v>746.3051760247533</v>
+        <v>746.3051760247535</v>
       </c>
       <c r="N14" t="n">
-        <v>758.3811740108736</v>
+        <v>758.3811740108738</v>
       </c>
       <c r="O14" t="n">
-        <v>716.1178374602417</v>
+        <v>716.1178374602418</v>
       </c>
       <c r="P14" t="n">
-        <v>611.1900063005962</v>
+        <v>611.1900063005963</v>
       </c>
       <c r="Q14" t="n">
-        <v>458.9782410993889</v>
+        <v>458.978241099389</v>
       </c>
       <c r="R14" t="n">
         <v>266.9842176843375</v>
       </c>
       <c r="S14" t="n">
-        <v>96.85237276153607</v>
+        <v>96.85237276153609</v>
       </c>
       <c r="T14" t="n">
-        <v>18.60543112511789</v>
+        <v>18.6054311251179</v>
       </c>
       <c r="U14" t="n">
-        <v>0.340019300973028</v>
+        <v>0.3400193009730281</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.274079558335531</v>
+        <v>2.274079558335532</v>
       </c>
       <c r="H15" t="n">
         <v>21.96282099760895</v>
       </c>
       <c r="I15" t="n">
-        <v>78.29616023216633</v>
+        <v>78.29616023216634</v>
       </c>
       <c r="J15" t="n">
         <v>214.8506480969548</v>
       </c>
       <c r="K15" t="n">
-        <v>367.2139785054353</v>
+        <v>367.2139785054354</v>
       </c>
       <c r="L15" t="n">
-        <v>493.7645111201775</v>
+        <v>493.7645111201776</v>
       </c>
       <c r="M15" t="n">
-        <v>576.1998951098404</v>
+        <v>576.1998951098406</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4501917970994</v>
+        <v>591.4501917970996</v>
       </c>
       <c r="O15" t="n">
-        <v>541.0613763202963</v>
+        <v>541.0613763202964</v>
       </c>
       <c r="P15" t="n">
         <v>434.2494553105806</v>
       </c>
       <c r="Q15" t="n">
-        <v>290.2842608149004</v>
+        <v>290.2842608149005</v>
       </c>
       <c r="R15" t="n">
         <v>141.1924132798149</v>
       </c>
       <c r="S15" t="n">
-        <v>42.2400303927674</v>
+        <v>42.24003039276742</v>
       </c>
       <c r="T15" t="n">
-        <v>9.166136465396283</v>
+        <v>9.166136465396285</v>
       </c>
       <c r="U15" t="n">
         <v>0.1496104972589166</v>
@@ -32150,43 +32150,43 @@
         <v>1.9065119104251</v>
       </c>
       <c r="H16" t="n">
-        <v>16.95062407632499</v>
+        <v>16.950624076325</v>
       </c>
       <c r="I16" t="n">
-        <v>57.3340127244203</v>
+        <v>57.33401272442031</v>
       </c>
       <c r="J16" t="n">
         <v>134.7903920670546</v>
       </c>
       <c r="K16" t="n">
-        <v>221.5020201384797</v>
+        <v>221.5020201384798</v>
       </c>
       <c r="L16" t="n">
-        <v>283.4463253008372</v>
+        <v>283.4463253008373</v>
       </c>
       <c r="M16" t="n">
         <v>298.8544079223636</v>
       </c>
       <c r="N16" t="n">
-        <v>291.7483180744157</v>
+        <v>291.7483180744158</v>
       </c>
       <c r="O16" t="n">
         <v>269.4767925753588</v>
       </c>
       <c r="P16" t="n">
-        <v>230.5839496026865</v>
+        <v>230.5839496026866</v>
       </c>
       <c r="Q16" t="n">
-        <v>159.6443746084145</v>
+        <v>159.6443746084146</v>
       </c>
       <c r="R16" t="n">
-        <v>85.72370826329583</v>
+        <v>85.72370826329585</v>
       </c>
       <c r="S16" t="n">
-        <v>33.22530302077196</v>
+        <v>33.22530302077197</v>
       </c>
       <c r="T16" t="n">
-        <v>8.146005435452697</v>
+        <v>8.146005435452699</v>
       </c>
       <c r="U16" t="n">
         <v>0.1039915587504601</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.250241262162851</v>
+        <v>4.250241262162852</v>
       </c>
       <c r="H20" t="n">
-        <v>43.52778332612531</v>
+        <v>43.52778332612532</v>
       </c>
       <c r="I20" t="n">
         <v>163.8574262595335</v>
@@ -32475,37 +32475,37 @@
         <v>360.7339143244947</v>
       </c>
       <c r="K20" t="n">
-        <v>540.6466269518482</v>
+        <v>540.6466269518484</v>
       </c>
       <c r="L20" t="n">
-        <v>670.7199479787647</v>
+        <v>670.7199479787649</v>
       </c>
       <c r="M20" t="n">
-        <v>746.3051760247533</v>
+        <v>746.3051760247535</v>
       </c>
       <c r="N20" t="n">
-        <v>758.3811740108736</v>
+        <v>758.3811740108738</v>
       </c>
       <c r="O20" t="n">
-        <v>716.1178374602417</v>
+        <v>716.1178374602418</v>
       </c>
       <c r="P20" t="n">
-        <v>611.1900063005962</v>
+        <v>611.1900063005963</v>
       </c>
       <c r="Q20" t="n">
-        <v>458.9782410993889</v>
+        <v>458.978241099389</v>
       </c>
       <c r="R20" t="n">
         <v>266.9842176843375</v>
       </c>
       <c r="S20" t="n">
-        <v>96.85237276153607</v>
+        <v>96.85237276153609</v>
       </c>
       <c r="T20" t="n">
-        <v>18.60543112511789</v>
+        <v>18.6054311251179</v>
       </c>
       <c r="U20" t="n">
-        <v>0.340019300973028</v>
+        <v>0.3400193009730281</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.274079558335531</v>
+        <v>2.274079558335532</v>
       </c>
       <c r="H21" t="n">
         <v>21.96282099760895</v>
       </c>
       <c r="I21" t="n">
-        <v>78.29616023216633</v>
+        <v>78.29616023216634</v>
       </c>
       <c r="J21" t="n">
         <v>214.8506480969548</v>
       </c>
       <c r="K21" t="n">
-        <v>367.2139785054353</v>
+        <v>367.2139785054354</v>
       </c>
       <c r="L21" t="n">
-        <v>493.7645111201775</v>
+        <v>493.7645111201776</v>
       </c>
       <c r="M21" t="n">
-        <v>576.1998951098404</v>
+        <v>576.1998951098406</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4501917970994</v>
+        <v>591.4501917970996</v>
       </c>
       <c r="O21" t="n">
-        <v>541.0613763202963</v>
+        <v>541.0613763202964</v>
       </c>
       <c r="P21" t="n">
         <v>434.2494553105806</v>
       </c>
       <c r="Q21" t="n">
-        <v>290.2842608149004</v>
+        <v>290.2842608149005</v>
       </c>
       <c r="R21" t="n">
         <v>141.1924132798149</v>
       </c>
       <c r="S21" t="n">
-        <v>42.2400303927674</v>
+        <v>42.24003039276742</v>
       </c>
       <c r="T21" t="n">
-        <v>9.166136465396283</v>
+        <v>9.166136465396285</v>
       </c>
       <c r="U21" t="n">
         <v>0.1496104972589166</v>
@@ -32624,43 +32624,43 @@
         <v>1.9065119104251</v>
       </c>
       <c r="H22" t="n">
-        <v>16.95062407632499</v>
+        <v>16.950624076325</v>
       </c>
       <c r="I22" t="n">
-        <v>57.3340127244203</v>
+        <v>57.33401272442031</v>
       </c>
       <c r="J22" t="n">
         <v>134.7903920670546</v>
       </c>
       <c r="K22" t="n">
-        <v>221.5020201384797</v>
+        <v>221.5020201384798</v>
       </c>
       <c r="L22" t="n">
-        <v>283.4463253008372</v>
+        <v>283.4463253008373</v>
       </c>
       <c r="M22" t="n">
         <v>298.8544079223636</v>
       </c>
       <c r="N22" t="n">
-        <v>291.7483180744157</v>
+        <v>291.7483180744158</v>
       </c>
       <c r="O22" t="n">
         <v>269.4767925753588</v>
       </c>
       <c r="P22" t="n">
-        <v>230.5839496026865</v>
+        <v>230.5839496026866</v>
       </c>
       <c r="Q22" t="n">
-        <v>159.6443746084145</v>
+        <v>159.6443746084146</v>
       </c>
       <c r="R22" t="n">
-        <v>85.72370826329583</v>
+        <v>85.72370826329585</v>
       </c>
       <c r="S22" t="n">
-        <v>33.22530302077196</v>
+        <v>33.22530302077197</v>
       </c>
       <c r="T22" t="n">
-        <v>8.146005435452697</v>
+        <v>8.146005435452699</v>
       </c>
       <c r="U22" t="n">
         <v>0.1039915587504601</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.250241262162852</v>
+        <v>4.250241262162851</v>
       </c>
       <c r="H23" t="n">
-        <v>43.52778332612532</v>
+        <v>43.52778332612531</v>
       </c>
       <c r="I23" t="n">
         <v>163.8574262595335</v>
@@ -32712,37 +32712,37 @@
         <v>360.7339143244947</v>
       </c>
       <c r="K23" t="n">
-        <v>540.6466269518484</v>
+        <v>540.6466269518482</v>
       </c>
       <c r="L23" t="n">
-        <v>670.7199479787649</v>
+        <v>670.7199479787647</v>
       </c>
       <c r="M23" t="n">
-        <v>746.3051760247535</v>
+        <v>746.3051760247533</v>
       </c>
       <c r="N23" t="n">
-        <v>758.3811740108738</v>
+        <v>758.3811740108736</v>
       </c>
       <c r="O23" t="n">
-        <v>716.1178374602418</v>
+        <v>716.1178374602417</v>
       </c>
       <c r="P23" t="n">
-        <v>611.1900063005963</v>
+        <v>611.1900063005962</v>
       </c>
       <c r="Q23" t="n">
-        <v>458.978241099389</v>
+        <v>458.9782410993889</v>
       </c>
       <c r="R23" t="n">
         <v>266.9842176843375</v>
       </c>
       <c r="S23" t="n">
-        <v>96.85237276153609</v>
+        <v>96.85237276153607</v>
       </c>
       <c r="T23" t="n">
-        <v>18.6054311251179</v>
+        <v>18.60543112511789</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3400193009730281</v>
+        <v>0.340019300973028</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.274079558335532</v>
+        <v>2.274079558335531</v>
       </c>
       <c r="H24" t="n">
         <v>21.96282099760895</v>
       </c>
       <c r="I24" t="n">
-        <v>78.29616023216634</v>
+        <v>78.29616023216633</v>
       </c>
       <c r="J24" t="n">
         <v>214.8506480969548</v>
       </c>
       <c r="K24" t="n">
-        <v>367.2139785054354</v>
+        <v>367.2139785054353</v>
       </c>
       <c r="L24" t="n">
-        <v>493.7645111201776</v>
+        <v>493.7645111201775</v>
       </c>
       <c r="M24" t="n">
-        <v>576.1998951098406</v>
+        <v>576.1998951098404</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4501917970996</v>
+        <v>591.4501917970994</v>
       </c>
       <c r="O24" t="n">
-        <v>541.0613763202964</v>
+        <v>541.0613763202963</v>
       </c>
       <c r="P24" t="n">
         <v>434.2494553105806</v>
       </c>
       <c r="Q24" t="n">
-        <v>290.2842608149005</v>
+        <v>290.2842608149004</v>
       </c>
       <c r="R24" t="n">
         <v>141.1924132798149</v>
       </c>
       <c r="S24" t="n">
-        <v>42.24003039276742</v>
+        <v>42.2400303927674</v>
       </c>
       <c r="T24" t="n">
-        <v>9.166136465396285</v>
+        <v>9.166136465396283</v>
       </c>
       <c r="U24" t="n">
         <v>0.1496104972589166</v>
@@ -32861,43 +32861,43 @@
         <v>1.9065119104251</v>
       </c>
       <c r="H25" t="n">
-        <v>16.950624076325</v>
+        <v>16.95062407632499</v>
       </c>
       <c r="I25" t="n">
-        <v>57.33401272442031</v>
+        <v>57.3340127244203</v>
       </c>
       <c r="J25" t="n">
         <v>134.7903920670546</v>
       </c>
       <c r="K25" t="n">
-        <v>221.5020201384798</v>
+        <v>221.5020201384797</v>
       </c>
       <c r="L25" t="n">
-        <v>283.4463253008373</v>
+        <v>283.4463253008372</v>
       </c>
       <c r="M25" t="n">
         <v>298.8544079223636</v>
       </c>
       <c r="N25" t="n">
-        <v>291.7483180744158</v>
+        <v>291.7483180744157</v>
       </c>
       <c r="O25" t="n">
         <v>269.4767925753588</v>
       </c>
       <c r="P25" t="n">
-        <v>230.5839496026866</v>
+        <v>230.5839496026865</v>
       </c>
       <c r="Q25" t="n">
-        <v>159.6443746084146</v>
+        <v>159.6443746084145</v>
       </c>
       <c r="R25" t="n">
-        <v>85.72370826329585</v>
+        <v>85.72370826329583</v>
       </c>
       <c r="S25" t="n">
-        <v>33.22530302077197</v>
+        <v>33.22530302077196</v>
       </c>
       <c r="T25" t="n">
-        <v>8.146005435452699</v>
+        <v>8.146005435452697</v>
       </c>
       <c r="U25" t="n">
         <v>0.1039915587504601</v>
@@ -32946,7 +32946,7 @@
         <v>163.8574262595335</v>
       </c>
       <c r="J26" t="n">
-        <v>360.7339143244947</v>
+        <v>360.7339143244959</v>
       </c>
       <c r="K26" t="n">
         <v>540.6466269518482</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.25024126216285</v>
+        <v>4.250241262162851</v>
       </c>
       <c r="H32" t="n">
-        <v>43.5277833261253</v>
+        <v>43.52778332612531</v>
       </c>
       <c r="I32" t="n">
-        <v>163.8574262595334</v>
+        <v>163.8574262595335</v>
       </c>
       <c r="J32" t="n">
-        <v>360.7339143244945</v>
+        <v>360.7339143244947</v>
       </c>
       <c r="K32" t="n">
-        <v>540.6466269518481</v>
+        <v>540.6466269518482</v>
       </c>
       <c r="L32" t="n">
-        <v>670.7199479787646</v>
+        <v>670.7199479787647</v>
       </c>
       <c r="M32" t="n">
-        <v>746.3051760247531</v>
+        <v>746.3051760247533</v>
       </c>
       <c r="N32" t="n">
-        <v>758.3811740108735</v>
+        <v>758.3811740108736</v>
       </c>
       <c r="O32" t="n">
-        <v>716.1178374602415</v>
+        <v>716.1178374602417</v>
       </c>
       <c r="P32" t="n">
-        <v>611.1900063005961</v>
+        <v>611.1900063005962</v>
       </c>
       <c r="Q32" t="n">
-        <v>458.9782410993888</v>
+        <v>458.9782410993889</v>
       </c>
       <c r="R32" t="n">
-        <v>266.9842176843374</v>
+        <v>266.9842176843375</v>
       </c>
       <c r="S32" t="n">
-        <v>96.85237276153605</v>
+        <v>96.85237276153607</v>
       </c>
       <c r="T32" t="n">
         <v>18.60543112511789</v>
@@ -33493,43 +33493,43 @@
         <v>2.274079558335531</v>
       </c>
       <c r="H33" t="n">
-        <v>21.96282099760894</v>
+        <v>21.96282099760895</v>
       </c>
       <c r="I33" t="n">
-        <v>78.2961602321663</v>
+        <v>78.29616023216633</v>
       </c>
       <c r="J33" t="n">
-        <v>214.8506480969547</v>
+        <v>214.8506480969548</v>
       </c>
       <c r="K33" t="n">
         <v>367.2139785054353</v>
       </c>
       <c r="L33" t="n">
-        <v>493.7645111201774</v>
+        <v>493.7645111201775</v>
       </c>
       <c r="M33" t="n">
-        <v>576.1998951098403</v>
+        <v>576.1998951098404</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4501917970993</v>
+        <v>591.4501917970994</v>
       </c>
       <c r="O33" t="n">
-        <v>541.0613763202962</v>
+        <v>541.0613763202963</v>
       </c>
       <c r="P33" t="n">
-        <v>434.2494553105805</v>
+        <v>434.2494553105806</v>
       </c>
       <c r="Q33" t="n">
         <v>290.2842608149004</v>
       </c>
       <c r="R33" t="n">
-        <v>141.1924132798148</v>
+        <v>141.1924132798149</v>
       </c>
       <c r="S33" t="n">
-        <v>42.24003039276739</v>
+        <v>42.2400303927674</v>
       </c>
       <c r="T33" t="n">
-        <v>9.16613646539628</v>
+        <v>9.166136465396283</v>
       </c>
       <c r="U33" t="n">
         <v>0.1496104972589166</v>
@@ -33575,25 +33575,25 @@
         <v>16.95062407632499</v>
       </c>
       <c r="I34" t="n">
-        <v>57.33401272442028</v>
+        <v>57.3340127244203</v>
       </c>
       <c r="J34" t="n">
-        <v>134.7903920670545</v>
+        <v>134.7903920670546</v>
       </c>
       <c r="K34" t="n">
         <v>221.5020201384797</v>
       </c>
       <c r="L34" t="n">
-        <v>283.4463253008371</v>
+        <v>283.4463253008372</v>
       </c>
       <c r="M34" t="n">
-        <v>298.8544079223635</v>
+        <v>298.8544079223636</v>
       </c>
       <c r="N34" t="n">
-        <v>291.7483180744156</v>
+        <v>291.7483180744157</v>
       </c>
       <c r="O34" t="n">
-        <v>269.4767925753587</v>
+        <v>269.4767925753588</v>
       </c>
       <c r="P34" t="n">
         <v>230.5839496026865</v>
@@ -33602,10 +33602,10 @@
         <v>159.6443746084145</v>
       </c>
       <c r="R34" t="n">
-        <v>85.72370826329582</v>
+        <v>85.72370826329583</v>
       </c>
       <c r="S34" t="n">
-        <v>33.22530302077195</v>
+        <v>33.22530302077196</v>
       </c>
       <c r="T34" t="n">
         <v>8.146005435452697</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.25024126216285</v>
+        <v>4.250241262162851</v>
       </c>
       <c r="H35" t="n">
-        <v>43.5277833261253</v>
+        <v>43.52778332612531</v>
       </c>
       <c r="I35" t="n">
-        <v>163.8574262595334</v>
+        <v>163.8574262595335</v>
       </c>
       <c r="J35" t="n">
-        <v>360.7339143244945</v>
+        <v>360.7339143244947</v>
       </c>
       <c r="K35" t="n">
-        <v>540.6466269518481</v>
+        <v>540.6466269518482</v>
       </c>
       <c r="L35" t="n">
-        <v>670.7199479787646</v>
+        <v>670.7199479787647</v>
       </c>
       <c r="M35" t="n">
-        <v>746.3051760247531</v>
+        <v>746.3051760247533</v>
       </c>
       <c r="N35" t="n">
-        <v>758.3811740108735</v>
+        <v>758.3811740108736</v>
       </c>
       <c r="O35" t="n">
-        <v>716.1178374602415</v>
+        <v>716.1178374602417</v>
       </c>
       <c r="P35" t="n">
-        <v>611.1900063005961</v>
+        <v>611.1900063005962</v>
       </c>
       <c r="Q35" t="n">
-        <v>458.9782410993888</v>
+        <v>458.9782410993889</v>
       </c>
       <c r="R35" t="n">
-        <v>266.9842176843374</v>
+        <v>266.9842176843375</v>
       </c>
       <c r="S35" t="n">
-        <v>96.85237276153605</v>
+        <v>96.85237276153607</v>
       </c>
       <c r="T35" t="n">
         <v>18.60543112511789</v>
@@ -33730,43 +33730,43 @@
         <v>2.274079558335531</v>
       </c>
       <c r="H36" t="n">
-        <v>21.96282099760894</v>
+        <v>21.96282099760895</v>
       </c>
       <c r="I36" t="n">
-        <v>78.2961602321663</v>
+        <v>78.29616023216633</v>
       </c>
       <c r="J36" t="n">
-        <v>214.8506480969547</v>
+        <v>214.8506480969548</v>
       </c>
       <c r="K36" t="n">
         <v>367.2139785054353</v>
       </c>
       <c r="L36" t="n">
-        <v>493.7645111201774</v>
+        <v>493.7645111201775</v>
       </c>
       <c r="M36" t="n">
-        <v>576.1998951098403</v>
+        <v>576.1998951098404</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4501917970993</v>
+        <v>591.4501917970994</v>
       </c>
       <c r="O36" t="n">
-        <v>541.0613763202962</v>
+        <v>541.0613763202963</v>
       </c>
       <c r="P36" t="n">
-        <v>434.2494553105805</v>
+        <v>434.2494553105806</v>
       </c>
       <c r="Q36" t="n">
         <v>290.2842608149004</v>
       </c>
       <c r="R36" t="n">
-        <v>141.1924132798148</v>
+        <v>141.1924132798149</v>
       </c>
       <c r="S36" t="n">
-        <v>42.24003039276739</v>
+        <v>42.2400303927674</v>
       </c>
       <c r="T36" t="n">
-        <v>9.16613646539628</v>
+        <v>9.166136465396283</v>
       </c>
       <c r="U36" t="n">
         <v>0.1496104972589166</v>
@@ -33812,25 +33812,25 @@
         <v>16.95062407632499</v>
       </c>
       <c r="I37" t="n">
-        <v>57.33401272442028</v>
+        <v>57.3340127244203</v>
       </c>
       <c r="J37" t="n">
-        <v>134.7903920670545</v>
+        <v>134.7903920670546</v>
       </c>
       <c r="K37" t="n">
         <v>221.5020201384797</v>
       </c>
       <c r="L37" t="n">
-        <v>283.4463253008371</v>
+        <v>283.4463253008372</v>
       </c>
       <c r="M37" t="n">
-        <v>298.8544079223635</v>
+        <v>298.8544079223636</v>
       </c>
       <c r="N37" t="n">
-        <v>291.7483180744156</v>
+        <v>291.7483180744157</v>
       </c>
       <c r="O37" t="n">
-        <v>269.4767925753587</v>
+        <v>269.4767925753588</v>
       </c>
       <c r="P37" t="n">
         <v>230.5839496026865</v>
@@ -33839,10 +33839,10 @@
         <v>159.6443746084145</v>
       </c>
       <c r="R37" t="n">
-        <v>85.72370826329582</v>
+        <v>85.72370826329583</v>
       </c>
       <c r="S37" t="n">
-        <v>33.22530302077195</v>
+        <v>33.22530302077196</v>
       </c>
       <c r="T37" t="n">
         <v>8.146005435452697</v>
@@ -34149,13 +34149,13 @@
         <v>716.1178374602415</v>
       </c>
       <c r="P41" t="n">
-        <v>611.1900063005961</v>
+        <v>611.1900063005967</v>
       </c>
       <c r="Q41" t="n">
         <v>458.9782410993888</v>
       </c>
       <c r="R41" t="n">
-        <v>266.9842176843368</v>
+        <v>266.9842176843374</v>
       </c>
       <c r="S41" t="n">
         <v>96.85237276153605</v>
@@ -34386,13 +34386,13 @@
         <v>716.1178374602415</v>
       </c>
       <c r="P44" t="n">
-        <v>611.1900063005961</v>
+        <v>611.1900063005967</v>
       </c>
       <c r="Q44" t="n">
         <v>458.9782410993888</v>
       </c>
       <c r="R44" t="n">
-        <v>266.9842176843368</v>
+        <v>266.9842176843374</v>
       </c>
       <c r="S44" t="n">
         <v>96.85237276153605</v>
@@ -35412,28 +35412,28 @@
         <v>179.6880097978084</v>
       </c>
       <c r="K11" t="n">
-        <v>320.5567759068677</v>
+        <v>320.5567759068678</v>
       </c>
       <c r="L11" t="n">
-        <v>434.9535330087775</v>
+        <v>434.9535330087777</v>
       </c>
       <c r="M11" t="n">
-        <v>515.9589427974806</v>
+        <v>515.9589427974807</v>
       </c>
       <c r="N11" t="n">
-        <v>528.9681104142826</v>
+        <v>528.9681104142828</v>
       </c>
       <c r="O11" t="n">
-        <v>486.019626038555</v>
+        <v>486.0196260385551</v>
       </c>
       <c r="P11" t="n">
-        <v>379.9570105453267</v>
+        <v>379.9570105453268</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.6725512249394</v>
+        <v>236.6725512249396</v>
       </c>
       <c r="R11" t="n">
-        <v>51.39867987020534</v>
+        <v>51.3986798702054</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.01302143028806</v>
+        <v>88.01302143028812</v>
       </c>
       <c r="K12" t="n">
-        <v>331.6991422755239</v>
+        <v>229.3725395310764</v>
       </c>
       <c r="L12" t="n">
-        <v>355.2101313403033</v>
+        <v>355.2101313403035</v>
       </c>
       <c r="M12" t="n">
-        <v>434.0658611878221</v>
+        <v>434.0658611878222</v>
       </c>
       <c r="N12" t="n">
-        <v>460.1084797137661</v>
+        <v>460.1084797137663</v>
       </c>
       <c r="O12" t="n">
-        <v>398.4651318758519</v>
+        <v>500.7917346202992</v>
       </c>
       <c r="P12" t="n">
-        <v>300.2750478962503</v>
+        <v>300.2750478962504</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.3024867288789</v>
+        <v>150.302486728879</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.43121195038179</v>
+        <v>41.43121195038182</v>
       </c>
       <c r="K13" t="n">
         <v>199.2325283125969</v>
       </c>
       <c r="L13" t="n">
-        <v>311.0363505611533</v>
+        <v>311.0363505611534</v>
       </c>
       <c r="M13" t="n">
         <v>338.4382848842042</v>
@@ -35585,10 +35585,10 @@
         <v>294.0619204893985</v>
       </c>
       <c r="P13" t="n">
-        <v>227.86250886758</v>
+        <v>227.8625088675801</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.48233135672014</v>
+        <v>73.48233135672017</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>179.6880097978084</v>
       </c>
       <c r="K14" t="n">
-        <v>320.5567759068677</v>
+        <v>320.5567759068678</v>
       </c>
       <c r="L14" t="n">
-        <v>434.9535330087775</v>
+        <v>434.9535330087777</v>
       </c>
       <c r="M14" t="n">
-        <v>515.9589427974806</v>
+        <v>515.9589427974807</v>
       </c>
       <c r="N14" t="n">
-        <v>528.9681104142826</v>
+        <v>528.9681104142828</v>
       </c>
       <c r="O14" t="n">
-        <v>486.019626038555</v>
+        <v>486.0196260385551</v>
       </c>
       <c r="P14" t="n">
-        <v>379.9570105453267</v>
+        <v>379.9570105453268</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.6725512249394</v>
+        <v>236.6725512249396</v>
       </c>
       <c r="R14" t="n">
-        <v>51.39867987020534</v>
+        <v>51.3986798702054</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>190.3396241747356</v>
+        <v>88.01302143028812</v>
       </c>
       <c r="K15" t="n">
-        <v>229.3725395310763</v>
+        <v>229.3725395310764</v>
       </c>
       <c r="L15" t="n">
-        <v>355.2101313403033</v>
+        <v>355.2101313403035</v>
       </c>
       <c r="M15" t="n">
-        <v>434.0658611878221</v>
+        <v>434.0658611878222</v>
       </c>
       <c r="N15" t="n">
-        <v>460.1084797137661</v>
+        <v>460.1084797137663</v>
       </c>
       <c r="O15" t="n">
-        <v>398.4651318758519</v>
+        <v>398.465131875852</v>
       </c>
       <c r="P15" t="n">
-        <v>300.2750478962503</v>
+        <v>402.6016506406978</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.3024867288789</v>
+        <v>150.302486728879</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.43121195038179</v>
+        <v>41.43121195038182</v>
       </c>
       <c r="K16" t="n">
         <v>199.2325283125969</v>
       </c>
       <c r="L16" t="n">
-        <v>311.0363505611533</v>
+        <v>311.0363505611534</v>
       </c>
       <c r="M16" t="n">
         <v>338.4382848842042</v>
@@ -35822,10 +35822,10 @@
         <v>294.0619204893985</v>
       </c>
       <c r="P16" t="n">
-        <v>227.86250886758</v>
+        <v>227.8625088675801</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.48233135672014</v>
+        <v>73.48233135672017</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.3050450475639</v>
+        <v>88.01302143028806</v>
       </c>
       <c r="K18" t="n">
         <v>229.3725395310763</v>
       </c>
       <c r="L18" t="n">
-        <v>355.2101313403033</v>
+        <v>457.5367340847509</v>
       </c>
       <c r="M18" t="n">
         <v>434.0658611878221</v>
@@ -35986,7 +35986,7 @@
         <v>150.3024867288789</v>
       </c>
       <c r="R18" t="n">
-        <v>41.03457912717174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>179.6880097978084</v>
       </c>
       <c r="K20" t="n">
-        <v>320.5567759068677</v>
+        <v>320.5567759068678</v>
       </c>
       <c r="L20" t="n">
-        <v>434.9535330087775</v>
+        <v>434.9535330087777</v>
       </c>
       <c r="M20" t="n">
-        <v>515.9589427974806</v>
+        <v>515.9589427974807</v>
       </c>
       <c r="N20" t="n">
-        <v>528.9681104142826</v>
+        <v>528.9681104142828</v>
       </c>
       <c r="O20" t="n">
-        <v>486.019626038555</v>
+        <v>486.0196260385551</v>
       </c>
       <c r="P20" t="n">
-        <v>379.9570105453267</v>
+        <v>379.9570105453268</v>
       </c>
       <c r="Q20" t="n">
-        <v>236.6725512249394</v>
+        <v>236.6725512249396</v>
       </c>
       <c r="R20" t="n">
-        <v>51.39867987020534</v>
+        <v>51.3986798702054</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.01302143028806</v>
+        <v>88.01302143028812</v>
       </c>
       <c r="K21" t="n">
-        <v>229.3725395310763</v>
+        <v>331.6991422755237</v>
       </c>
       <c r="L21" t="n">
-        <v>355.2101313403033</v>
+        <v>355.2101313403035</v>
       </c>
       <c r="M21" t="n">
-        <v>434.0658611878221</v>
+        <v>434.0658611878222</v>
       </c>
       <c r="N21" t="n">
-        <v>460.1084797137661</v>
+        <v>460.1084797137663</v>
       </c>
       <c r="O21" t="n">
-        <v>398.4651318758519</v>
+        <v>398.465131875852</v>
       </c>
       <c r="P21" t="n">
-        <v>300.2750478962503</v>
+        <v>300.2750478962504</v>
       </c>
       <c r="Q21" t="n">
-        <v>252.6290894733269</v>
+        <v>150.302486728879</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.43121195038179</v>
+        <v>41.43121195038182</v>
       </c>
       <c r="K22" t="n">
         <v>199.2325283125969</v>
       </c>
       <c r="L22" t="n">
-        <v>311.0363505611533</v>
+        <v>311.0363505611534</v>
       </c>
       <c r="M22" t="n">
         <v>338.4382848842042</v>
@@ -36296,10 +36296,10 @@
         <v>294.0619204893985</v>
       </c>
       <c r="P22" t="n">
-        <v>227.86250886758</v>
+        <v>227.8625088675801</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.48233135672014</v>
+        <v>73.48233135672017</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>179.6880097978084</v>
       </c>
       <c r="K23" t="n">
-        <v>320.5567759068678</v>
+        <v>320.5567759068677</v>
       </c>
       <c r="L23" t="n">
-        <v>434.9535330087777</v>
+        <v>434.9535330087775</v>
       </c>
       <c r="M23" t="n">
-        <v>515.9589427974807</v>
+        <v>515.9589427974806</v>
       </c>
       <c r="N23" t="n">
-        <v>528.9681104142828</v>
+        <v>528.9681104142826</v>
       </c>
       <c r="O23" t="n">
-        <v>486.0196260385551</v>
+        <v>486.019626038555</v>
       </c>
       <c r="P23" t="n">
-        <v>379.9570105453268</v>
+        <v>379.9570105453267</v>
       </c>
       <c r="Q23" t="n">
-        <v>236.6725512249396</v>
+        <v>236.6725512249394</v>
       </c>
       <c r="R23" t="n">
-        <v>51.3986798702054</v>
+        <v>51.39867987020534</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>190.3396241747354</v>
+        <v>88.01302143028806</v>
       </c>
       <c r="K24" t="n">
-        <v>229.3725395310764</v>
+        <v>331.6991422755239</v>
       </c>
       <c r="L24" t="n">
-        <v>355.2101313403035</v>
+        <v>355.2101313403033</v>
       </c>
       <c r="M24" t="n">
-        <v>434.0658611878222</v>
+        <v>434.0658611878221</v>
       </c>
       <c r="N24" t="n">
-        <v>460.1084797137663</v>
+        <v>460.1084797137661</v>
       </c>
       <c r="O24" t="n">
-        <v>398.465131875852</v>
+        <v>398.4651318758519</v>
       </c>
       <c r="P24" t="n">
-        <v>300.2750478962504</v>
+        <v>300.2750478962503</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.302486728879</v>
+        <v>150.3024867288789</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.43121195038182</v>
+        <v>41.43121195038179</v>
       </c>
       <c r="K25" t="n">
         <v>199.2325283125969</v>
       </c>
       <c r="L25" t="n">
-        <v>311.0363505611534</v>
+        <v>311.0363505611533</v>
       </c>
       <c r="M25" t="n">
         <v>338.4382848842042</v>
@@ -36533,10 +36533,10 @@
         <v>294.0619204893985</v>
       </c>
       <c r="P25" t="n">
-        <v>227.8625088675801</v>
+        <v>227.86250886758</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.48233135672017</v>
+        <v>73.48233135672014</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>179.6880097978084</v>
+        <v>179.6880097978096</v>
       </c>
       <c r="K26" t="n">
         <v>320.5567759068677</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.01302143028806</v>
+        <v>190.3396241747356</v>
       </c>
       <c r="K27" t="n">
         <v>229.3725395310763</v>
@@ -36682,7 +36682,7 @@
         <v>355.2101313403033</v>
       </c>
       <c r="M27" t="n">
-        <v>536.3924639322697</v>
+        <v>434.0658611878221</v>
       </c>
       <c r="N27" t="n">
         <v>460.1084797137661</v>
@@ -36913,13 +36913,13 @@
         <v>88.01302143028806</v>
       </c>
       <c r="K30" t="n">
-        <v>229.3725395310763</v>
+        <v>331.6991422755239</v>
       </c>
       <c r="L30" t="n">
         <v>355.2101313403033</v>
       </c>
       <c r="M30" t="n">
-        <v>536.3924639322697</v>
+        <v>434.0658611878221</v>
       </c>
       <c r="N30" t="n">
         <v>460.1084797137661</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>179.6880097978083</v>
+        <v>179.6880097978084</v>
       </c>
       <c r="K32" t="n">
-        <v>320.5567759068676</v>
+        <v>320.5567759068677</v>
       </c>
       <c r="L32" t="n">
-        <v>434.9535330087774</v>
+        <v>434.9535330087775</v>
       </c>
       <c r="M32" t="n">
-        <v>515.9589427974804</v>
+        <v>515.9589427974806</v>
       </c>
       <c r="N32" t="n">
         <v>528.9681104142826</v>
       </c>
       <c r="O32" t="n">
-        <v>486.0196260385547</v>
+        <v>486.019626038555</v>
       </c>
       <c r="P32" t="n">
-        <v>379.9570105453266</v>
+        <v>379.9570105453267</v>
       </c>
       <c r="Q32" t="n">
-        <v>236.6725512249393</v>
+        <v>236.6725512249394</v>
       </c>
       <c r="R32" t="n">
-        <v>51.39867987020529</v>
+        <v>51.39867987020534</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.01302143028801</v>
+        <v>190.3396241747356</v>
       </c>
       <c r="K33" t="n">
         <v>229.3725395310763</v>
       </c>
       <c r="L33" t="n">
-        <v>355.2101313403032</v>
+        <v>355.2101313403033</v>
       </c>
       <c r="M33" t="n">
-        <v>434.065861187822</v>
+        <v>434.0658611878221</v>
       </c>
       <c r="N33" t="n">
-        <v>460.108479713766</v>
+        <v>460.1084797137661</v>
       </c>
       <c r="O33" t="n">
-        <v>398.4651318758517</v>
+        <v>398.4651318758519</v>
       </c>
       <c r="P33" t="n">
-        <v>300.2750478962502</v>
+        <v>300.2750478962503</v>
       </c>
       <c r="Q33" t="n">
-        <v>252.6290894733282</v>
+        <v>150.3024867288789</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.43121195038177</v>
+        <v>41.43121195038179</v>
       </c>
       <c r="K34" t="n">
         <v>199.2325283125969</v>
@@ -37235,19 +37235,19 @@
         <v>311.0363505611533</v>
       </c>
       <c r="M34" t="n">
-        <v>338.4382848842041</v>
+        <v>338.4382848842042</v>
       </c>
       <c r="N34" t="n">
-        <v>335.8804904536443</v>
+        <v>335.8804904536444</v>
       </c>
       <c r="O34" t="n">
-        <v>294.0619204893984</v>
+        <v>294.0619204893985</v>
       </c>
       <c r="P34" t="n">
         <v>227.86250886758</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.48233135672011</v>
+        <v>73.48233135672014</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>179.6880097978083</v>
+        <v>179.6880097978084</v>
       </c>
       <c r="K35" t="n">
-        <v>320.5567759068676</v>
+        <v>320.5567759068677</v>
       </c>
       <c r="L35" t="n">
-        <v>434.9535330087774</v>
+        <v>434.9535330087775</v>
       </c>
       <c r="M35" t="n">
-        <v>515.9589427974804</v>
+        <v>515.9589427974806</v>
       </c>
       <c r="N35" t="n">
         <v>528.9681104142826</v>
       </c>
       <c r="O35" t="n">
-        <v>486.0196260385547</v>
+        <v>486.019626038555</v>
       </c>
       <c r="P35" t="n">
-        <v>379.9570105453266</v>
+        <v>379.9570105453267</v>
       </c>
       <c r="Q35" t="n">
-        <v>236.6725512249393</v>
+        <v>236.6725512249394</v>
       </c>
       <c r="R35" t="n">
-        <v>51.39867987020529</v>
+        <v>51.39867987020534</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.01302143028801</v>
+        <v>88.01302143028806</v>
       </c>
       <c r="K36" t="n">
-        <v>229.3725395310763</v>
+        <v>331.6991422755239</v>
       </c>
       <c r="L36" t="n">
-        <v>355.2101313403032</v>
+        <v>355.2101313403033</v>
       </c>
       <c r="M36" t="n">
-        <v>434.065861187822</v>
+        <v>434.0658611878221</v>
       </c>
       <c r="N36" t="n">
-        <v>562.4350824582153</v>
+        <v>460.1084797137661</v>
       </c>
       <c r="O36" t="n">
-        <v>398.4651318758517</v>
+        <v>398.4651318758519</v>
       </c>
       <c r="P36" t="n">
-        <v>300.2750478962502</v>
+        <v>300.2750478962503</v>
       </c>
       <c r="Q36" t="n">
         <v>150.3024867288789</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.43121195038177</v>
+        <v>41.43121195038179</v>
       </c>
       <c r="K37" t="n">
         <v>199.2325283125969</v>
@@ -37472,19 +37472,19 @@
         <v>311.0363505611533</v>
       </c>
       <c r="M37" t="n">
-        <v>338.4382848842041</v>
+        <v>338.4382848842042</v>
       </c>
       <c r="N37" t="n">
-        <v>335.8804904536443</v>
+        <v>335.8804904536444</v>
       </c>
       <c r="O37" t="n">
-        <v>294.0619204893984</v>
+        <v>294.0619204893985</v>
       </c>
       <c r="P37" t="n">
         <v>227.86250886758</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.48233135672011</v>
+        <v>73.48233135672014</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>88.01302143028801</v>
+        <v>190.3396241747375</v>
       </c>
       <c r="K39" t="n">
-        <v>331.6991422755257</v>
+        <v>229.3725395310763</v>
       </c>
       <c r="L39" t="n">
         <v>355.2101313403032</v>
@@ -37797,13 +37797,13 @@
         <v>486.0196260385547</v>
       </c>
       <c r="P41" t="n">
-        <v>379.9570105453266</v>
+        <v>379.9570105453271</v>
       </c>
       <c r="Q41" t="n">
         <v>236.6725512249393</v>
       </c>
       <c r="R41" t="n">
-        <v>51.39867987020467</v>
+        <v>51.39867987020529</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.01302143028801</v>
+        <v>190.3396241747375</v>
       </c>
       <c r="K42" t="n">
         <v>229.3725395310763</v>
@@ -37870,7 +37870,7 @@
         <v>434.065861187822</v>
       </c>
       <c r="N42" t="n">
-        <v>521.400503331044</v>
+        <v>460.108479713766</v>
       </c>
       <c r="O42" t="n">
         <v>398.4651318758517</v>
@@ -37882,7 +37882,7 @@
         <v>150.3024867288789</v>
       </c>
       <c r="R42" t="n">
-        <v>41.03457912717171</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>486.0196260385547</v>
       </c>
       <c r="P44" t="n">
-        <v>379.9570105453266</v>
+        <v>379.9570105453271</v>
       </c>
       <c r="Q44" t="n">
         <v>236.6725512249393</v>
       </c>
       <c r="R44" t="n">
-        <v>51.39867987020467</v>
+        <v>51.39867987020529</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
